--- a/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
+++ b/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
@@ -8,25 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\io-model\DToPaSoVAbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACE60A6-A560-47F6-929F-DD8886F4C650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39529954-3602-4AD0-968E-E6259D93B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BObIC" sheetId="24" r:id="rId2"/>
-    <sheet name="BVAbIC" sheetId="21" r:id="rId3"/>
-    <sheet name="KLEMS VA" sheetId="22" r:id="rId4"/>
-    <sheet name="Calculations" sheetId="23" r:id="rId5"/>
-    <sheet name="DToPaSoVAbIC" sheetId="2" r:id="rId6"/>
+    <sheet name="BVAbIC" sheetId="21" r:id="rId2"/>
+    <sheet name="KLEMS VA" sheetId="22" r:id="rId3"/>
+    <sheet name="Corporate Taxes" sheetId="23" r:id="rId4"/>
+    <sheet name="Approximate GST Rates" sheetId="26" r:id="rId5"/>
+    <sheet name="GST" sheetId="25" r:id="rId6"/>
+    <sheet name="DToPaSoVAbIC" sheetId="2" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="CAP_CT" localSheetId="1">#REF!</definedName>
+    <definedName name="CAP_CT" localSheetId="4">#REF!</definedName>
     <definedName name="CAP_CT">#REF!</definedName>
-    <definedName name="CAP_GFCF" localSheetId="1">#REF!</definedName>
+    <definedName name="CAP_GFCF" localSheetId="4">#REF!</definedName>
     <definedName name="CAP_GFCF">#REF!</definedName>
     <definedName name="CAP_IT">#REF!</definedName>
     <definedName name="CAP_OCon">#REF!</definedName>
@@ -65,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="304">
   <si>
     <t>Source:</t>
   </si>
@@ -199,24 +197,15 @@
     <t>Unit: USD</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>ISIC 05</t>
   </si>
   <si>
     <t>ISIC 06</t>
   </si>
   <si>
-    <t>It is applied to Value Added in version 3.1.3 of the model. However, we want to account for taxes on</t>
-  </si>
-  <si>
     <t>Value Added</t>
   </si>
   <si>
-    <t>total output, so we divide industry-specific tax rates by the share of output that is value added.</t>
-  </si>
-  <si>
     <t>Value Added at current prices (in Crores of ₹)</t>
   </si>
   <si>
@@ -529,234 +518,9 @@
     <t>Industry</t>
   </si>
   <si>
-    <t>Automobile and auto parts</t>
-  </si>
-  <si>
-    <t>Agro-based industries</t>
-  </si>
-  <si>
-    <t>Cement</t>
-  </si>
-  <si>
-    <t>Diamond cutting</t>
-  </si>
-  <si>
-    <t>Drugs and pharmaceuticals</t>
-  </si>
-  <si>
-    <t>Electronics including computer hardware</t>
-  </si>
-  <si>
-    <t>Engineering goods</t>
-  </si>
-  <si>
-    <t>Fertilizers, chemicals, paints</t>
-  </si>
-  <si>
-    <t>Flour and rice mills</t>
-  </si>
-  <si>
-    <t>Food processing units</t>
-  </si>
-  <si>
-    <t>Marble and granite</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>Petroleum and petrochemicals</t>
-  </si>
-  <si>
-    <t>Power and energy</t>
-  </si>
-  <si>
-    <t>Printing and publishing</t>
-  </si>
-  <si>
-    <t>Rubber</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>Tea, coffee</t>
-  </si>
-  <si>
-    <t>Textiles, handloom, power looms</t>
-  </si>
-  <si>
-    <t>Tobacco</t>
-  </si>
-  <si>
-    <t>Tyre</t>
-  </si>
-  <si>
-    <t>Vanaspati and edible oils</t>
-  </si>
-  <si>
-    <t>Other manufacturing</t>
-  </si>
-  <si>
-    <t>Trading - chain stores</t>
-  </si>
-  <si>
-    <t>Trading - retailers</t>
-  </si>
-  <si>
-    <t>Trading - wholesalers</t>
-  </si>
-  <si>
-    <t>Trading - others</t>
-  </si>
-  <si>
-    <t>General commission agents</t>
-  </si>
-  <si>
-    <t>Builders</t>
-  </si>
-  <si>
-    <t>Estate agents</t>
-  </si>
-  <si>
-    <t>Property developers</t>
-  </si>
-  <si>
-    <t>Builders - others</t>
-  </si>
-  <si>
-    <t>Civil contractors</t>
-  </si>
-  <si>
-    <t>Excise contractors</t>
-  </si>
-  <si>
-    <t>Mining contractors</t>
-  </si>
-  <si>
-    <t>Contractors - others</t>
-  </si>
-  <si>
-    <t>Charted accountants, auditors, etc.</t>
-  </si>
-  <si>
-    <t>Fashion designers</t>
-  </si>
-  <si>
-    <t>Legal professionals</t>
-  </si>
-  <si>
-    <t>Medical professionals</t>
-  </si>
-  <si>
-    <t>Nursing homes</t>
-  </si>
-  <si>
-    <t>Specialty hospitals</t>
-  </si>
-  <si>
-    <t>Professionals - other</t>
-  </si>
-  <si>
-    <t>Advertisement agencies</t>
-  </si>
-  <si>
-    <t>Beauty parlours</t>
-  </si>
-  <si>
-    <t>Consultancy services</t>
-  </si>
-  <si>
-    <t>Courier agencies</t>
-  </si>
-  <si>
-    <t>Computer training/educational and coaching institutes</t>
-  </si>
-  <si>
-    <t>Forex dealers</t>
-  </si>
-  <si>
-    <t>Hospitality services</t>
-  </si>
-  <si>
-    <t>Hotels</t>
-  </si>
-  <si>
-    <t>IT enabled services, BPO service providers</t>
-  </si>
-  <si>
-    <t>Security agencies</t>
-  </si>
-  <si>
-    <t>Software development agencies</t>
-  </si>
-  <si>
-    <t>Transporters</t>
-  </si>
-  <si>
-    <t>Travel agents, tour operators</t>
-  </si>
-  <si>
-    <t>Service sector - others</t>
-  </si>
-  <si>
-    <t>Banking companies</t>
-  </si>
-  <si>
-    <t>Chit funds</t>
-  </si>
-  <si>
-    <t>Financial institutions</t>
-  </si>
-  <si>
-    <t>Financial service providers</t>
-  </si>
-  <si>
-    <t>Leasing companies</t>
-  </si>
-  <si>
-    <t>Money lenders</t>
-  </si>
-  <si>
-    <t>Non-banking finance companies</t>
-  </si>
-  <si>
-    <t>Share brokers, sub-brokers, etc.</t>
-  </si>
-  <si>
-    <t>Financial services - others</t>
-  </si>
-  <si>
-    <t>Cable television productions</t>
-  </si>
-  <si>
-    <t>Film distribution</t>
-  </si>
-  <si>
-    <t>Film laboratories</t>
-  </si>
-  <si>
-    <t>Motion picture producers</t>
-  </si>
-  <si>
-    <t>Television channels</t>
-  </si>
-  <si>
-    <t>Entertainment industry - others</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>Mapped EPS ISIC Code</t>
   </si>
   <si>
-    <t>not mapped (fuel taxes tracked elsewhere in EPS)</t>
-  </si>
-  <si>
     <t>Collected Tax</t>
   </si>
   <si>
@@ -796,16 +560,421 @@
     <t>EPS variables io-model/BObIC and io-model/BVAbIC</t>
   </si>
   <si>
-    <t>Share of output that is value add</t>
-  </si>
-  <si>
-    <t>Tax rate adjusted by share of output that is value add</t>
-  </si>
-  <si>
-    <t>We compile industry specific tax rates using reported total tax collection as a share of value add, mapping</t>
-  </si>
-  <si>
     <t>each of those components to the ISIC codes used in the EPS.</t>
+  </si>
+  <si>
+    <t>D01T03: Agriculture, forestry and fishing</t>
+  </si>
+  <si>
+    <t>D05: Coal mining</t>
+  </si>
+  <si>
+    <t>D06: Oil and gas extraction</t>
+  </si>
+  <si>
+    <t>D07T08: Mining and quarrying of uranium and non-energy-producing products</t>
+  </si>
+  <si>
+    <t>D09: Mining support service activities</t>
+  </si>
+  <si>
+    <t>D10T12: Food products, beverages and tobacco</t>
+  </si>
+  <si>
+    <t>D13T15: Textiles, wearing apparel, leather and related products</t>
+  </si>
+  <si>
+    <t>D16: Wood and products of wood and cork</t>
+  </si>
+  <si>
+    <t>D17T18: Paper products and printing</t>
+  </si>
+  <si>
+    <t>D19: Coke and refined petroleum products</t>
+  </si>
+  <si>
+    <t>D20: Chemicals</t>
+  </si>
+  <si>
+    <t>D21: Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>D22: Rubber and plastic products</t>
+  </si>
+  <si>
+    <t>D239: Cement and other nometallic minerals</t>
+  </si>
+  <si>
+    <t>D24: Metals</t>
+  </si>
+  <si>
+    <t>D25: Fabricated metal products</t>
+  </si>
+  <si>
+    <t>D26: Computer, electronic and optical products</t>
+  </si>
+  <si>
+    <t>D27: Electrical equipment</t>
+  </si>
+  <si>
+    <t>D28: Machinery and equipment, nec</t>
+  </si>
+  <si>
+    <t>D29: Motor vehicles, trailers and semi-trailers</t>
+  </si>
+  <si>
+    <t>D30: Other transport equipment</t>
+  </si>
+  <si>
+    <t>D31T33: Other manufacturing; repair and installation of machinery and equipment</t>
+  </si>
+  <si>
+    <t>D351: Electricity generation and distribution, energy pipelines and gas processing, and water and wate</t>
+  </si>
+  <si>
+    <t>D41T43: Construction</t>
+  </si>
+  <si>
+    <t>D45T47: Wholesale and retail trade; repair of motor vehicles</t>
+  </si>
+  <si>
+    <t>D49T53: Transportation and storage</t>
+  </si>
+  <si>
+    <t>D55T56: Accomodation and food services</t>
+  </si>
+  <si>
+    <t>D58T60: Publishing, audiovisual and broadcasting activities</t>
+  </si>
+  <si>
+    <t>D61: Telecommunications</t>
+  </si>
+  <si>
+    <t>D62T63: IT and other information services</t>
+  </si>
+  <si>
+    <t>D64T66: Financial and insurance activities</t>
+  </si>
+  <si>
+    <t>D68: Real estate activities</t>
+  </si>
+  <si>
+    <t>D69T82: Other business sector services</t>
+  </si>
+  <si>
+    <t>D84: Public admin. and defence; compulsory social security</t>
+  </si>
+  <si>
+    <t>D85: Education</t>
+  </si>
+  <si>
+    <t>D86T88: Human health and social work</t>
+  </si>
+  <si>
+    <t>D90T96: Arts, entertainment, recreation and other service activities</t>
+  </si>
+  <si>
+    <t>D97T98: Private households with employed persons</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Total GST Revenue (2018-2019)</t>
+  </si>
+  <si>
+    <t>Approximate Tax Rates Applied to KLEMS Value Add Figures (2018-2019)</t>
+  </si>
+  <si>
+    <t>Tax Collected</t>
+  </si>
+  <si>
+    <t>Total Tax Collected Using Approximate Tax Rates</t>
+  </si>
+  <si>
+    <t>Ratio of Actual GST Revenue to Revenue with Approximate Tax Rates</t>
+  </si>
+  <si>
+    <t>GST Tax Rates Adjusted to Match Total Collected 2018-2019 Revenue</t>
+  </si>
+  <si>
+    <t>*average of 5% and 12% rates</t>
+  </si>
+  <si>
+    <t>Approximate Tax Rates</t>
+  </si>
+  <si>
+    <t>Ministry of Finance - Department of Revenue</t>
+  </si>
+  <si>
+    <t>GST Rates</t>
+  </si>
+  <si>
+    <t>https://cbic-gst.gov.in/gst-goods-services-rates.html</t>
+  </si>
+  <si>
+    <t>Agricultural and animal husbandry services</t>
+  </si>
+  <si>
+    <t>Raising of poultry and production of eggs</t>
+  </si>
+  <si>
+    <t>Growing and manufacturing of tea</t>
+  </si>
+  <si>
+    <t>Fish farming</t>
+  </si>
+  <si>
+    <t>Services related to marine and fresh water fisheries, fish hatcheries and fish farms</t>
+  </si>
+  <si>
+    <t>Extraction of crude petroleum and natural gas</t>
+  </si>
+  <si>
+    <t>Mining and agglomeration of hard coal</t>
+  </si>
+  <si>
+    <t>Mining of nonferrous metal ores, except uranium and thorium ores</t>
+  </si>
+  <si>
+    <t>Mining of iron ores</t>
+  </si>
+  <si>
+    <t>Manufacture of refined petroleum products</t>
+  </si>
+  <si>
+    <t>Manufacture of pharmaceuticals, medicinal chemicals and botanical products</t>
+  </si>
+  <si>
+    <t>Manufacture of motor vehicles</t>
+  </si>
+  <si>
+    <t>Manufacture of parts &amp; accessories of motor vehicles &amp; engines</t>
+  </si>
+  <si>
+    <t>Manufacture of steel products</t>
+  </si>
+  <si>
+    <t>Manufacture of other chemical products</t>
+  </si>
+  <si>
+    <t>Manufacture of tobacco products</t>
+  </si>
+  <si>
+    <t>Manufacture of textiles</t>
+  </si>
+  <si>
+    <t>Manufacture of electrical machinery and apparatus</t>
+  </si>
+  <si>
+    <t>Manufacture of cement, lime and plaster</t>
+  </si>
+  <si>
+    <t>Manufacture of other food products</t>
+  </si>
+  <si>
+    <t>Manufacture of radio, television, communication equipment and apparatus</t>
+  </si>
+  <si>
+    <t>Manufacture of soap and detergents</t>
+  </si>
+  <si>
+    <t>Manufacture of fertilizers and nitrogen compounds</t>
+  </si>
+  <si>
+    <t>Manufacture of rubber products</t>
+  </si>
+  <si>
+    <t>Manufacture of paints, varnishes and similar coatings</t>
+  </si>
+  <si>
+    <t>Manufacture of plastic products</t>
+  </si>
+  <si>
+    <t>Manufacture of paper and paper products</t>
+  </si>
+  <si>
+    <t>Manufacture of engines and turbines</t>
+  </si>
+  <si>
+    <t>Production, collection and distribution of electricity</t>
+  </si>
+  <si>
+    <t>Manufacture and distribution of gas</t>
+  </si>
+  <si>
+    <t>Collection, purification and distribution of water</t>
+  </si>
+  <si>
+    <t>Other essential commodity service n.e.c</t>
+  </si>
+  <si>
+    <t>Construction and maintenance of roads, rails, bridges, tunnels, ports, harbour runways</t>
+  </si>
+  <si>
+    <t>Building of complete constructions or parts civil contractors</t>
+  </si>
+  <si>
+    <t>Construction - others</t>
+  </si>
+  <si>
+    <t>Developing and subdividing real estate into lots</t>
+  </si>
+  <si>
+    <t>Operating of real estate of self-owned buildings</t>
+  </si>
+  <si>
+    <t>Purchase, sale and letting of leased buildings</t>
+  </si>
+  <si>
+    <t>Real estate activities on a fee or contract basis</t>
+  </si>
+  <si>
+    <t>Other real estate/renting services</t>
+  </si>
+  <si>
+    <t>Renting of machinery</t>
+  </si>
+  <si>
+    <t>Sale of motor parts and accessories wholesale and retail</t>
+  </si>
+  <si>
+    <t>Wholeslae of electronic parts &amp; equipment</t>
+  </si>
+  <si>
+    <t>Retail sale of textiles, apparel, footwear, leather goods</t>
+  </si>
+  <si>
+    <t>Wholesale and retail sale of motor vehicles</t>
+  </si>
+  <si>
+    <t>Wholesale of other machinery, equipment and supplies</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade - Others including non-classified</t>
+  </si>
+  <si>
+    <t>Hotels, Restaurants &amp; Hospitality services</t>
+  </si>
+  <si>
+    <t>Air transport</t>
+  </si>
+  <si>
+    <t>Freight transport by road</t>
+  </si>
+  <si>
+    <t>Transport &amp; Logistics - Others</t>
+  </si>
+  <si>
+    <t>Post &amp; Telecommunication Services</t>
+  </si>
+  <si>
+    <t>Commercial banks, saving banks and discount houses</t>
+  </si>
+  <si>
+    <t>Commercial loan activities</t>
+  </si>
+  <si>
+    <t>Housing finance activities</t>
+  </si>
+  <si>
+    <t>Financial Intermediation Services - Other</t>
+  </si>
+  <si>
+    <t>Software development</t>
+  </si>
+  <si>
+    <t>Other IT enabled services</t>
+  </si>
+  <si>
+    <t>BPO services</t>
+  </si>
+  <si>
+    <t>Computer &amp; Related Services - others</t>
+  </si>
+  <si>
+    <t>Research &amp; Development</t>
+  </si>
+  <si>
+    <t>Engineering and technical consultancy</t>
+  </si>
+  <si>
+    <t>Business and management consultancy activities</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Architectural profession</t>
+  </si>
+  <si>
+    <t>Professions - others</t>
+  </si>
+  <si>
+    <t>Coaching centers and tuitions</t>
+  </si>
+  <si>
+    <t>Primary education</t>
+  </si>
+  <si>
+    <t>Education services - other</t>
+  </si>
+  <si>
+    <t>Specialty and super specialty hospitals</t>
+  </si>
+  <si>
+    <t>Diagnostic centers</t>
+  </si>
+  <si>
+    <t>Other healthcare services</t>
+  </si>
+  <si>
+    <t>General hospitals</t>
+  </si>
+  <si>
+    <t>Health Care Services - Others</t>
+  </si>
+  <si>
+    <t>Social &amp; Community Work</t>
+  </si>
+  <si>
+    <t>Television channels broadcast</t>
+  </si>
+  <si>
+    <t>Motion picture production</t>
+  </si>
+  <si>
+    <t>Culture &amp; Sport - others</t>
+  </si>
+  <si>
+    <t>Agro - Others including non-classified</t>
+  </si>
+  <si>
+    <t>Fish Farming - Others</t>
+  </si>
+  <si>
+    <t>Mining &amp; Quarrying - Others</t>
+  </si>
+  <si>
+    <t>Manufacturing - Others including non-classified</t>
+  </si>
+  <si>
+    <t>We compile industry specific tax rates using reported total corporate tax collection as a share of value add, mapping</t>
+  </si>
+  <si>
+    <t>by estimating the average tax rate paid by ISIC code based on applicable GST rates by product and the types</t>
+  </si>
+  <si>
+    <t>of products or services contained within each ISIC code, then scaling those rates so that we produce the</t>
+  </si>
+  <si>
+    <t>correct GST revenue for the 2018-2019 FY.</t>
+  </si>
+  <si>
+    <t>We then approximate the tax rates paid by each industry</t>
+  </si>
+  <si>
+    <t>The reported tax rates are the sum of corporate and GST taxes.</t>
   </si>
 </sst>
 </file>
@@ -815,7 +984,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,8 +1072,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -938,6 +1113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,7 +1164,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1018,22 +1199,25 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1054,25 +1238,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="OECD TTL"/>
-      <sheetName val="IND IO-table"/>
-      <sheetName val="BObIC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1338,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1359,12 +1524,12 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1374,17 +1539,17 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
-        <v>235</v>
+      <c r="B7" s="29" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1392,12 +1557,12 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1407,17 +1572,17 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -1425,312 +1590,100 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{FA86C86A-53EC-4A05-B0C3-F22CE8DE7E16}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF72B72-38AF-4BE9-8F85-2F687FDD579A}">
-  <dimension ref="A1:AM2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.08984375" customWidth="1"/>
-    <col min="2" max="39" width="10.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2">
-        <v>445554388091.99341</v>
-      </c>
-      <c r="C2" s="8">
-        <v>17250900710.559963</v>
-      </c>
-      <c r="D2" s="8">
-        <v>30308845871.330791</v>
-      </c>
-      <c r="E2">
-        <v>17254446753.608391</v>
-      </c>
-      <c r="F2">
-        <v>12852370220.701469</v>
-      </c>
-      <c r="G2">
-        <v>179977354969.47476</v>
-      </c>
-      <c r="H2">
-        <v>146395586594.21054</v>
-      </c>
-      <c r="I2">
-        <v>14496222847.306313</v>
-      </c>
-      <c r="J2">
-        <v>27060797773.155514</v>
-      </c>
-      <c r="K2">
-        <v>197780850437.73233</v>
-      </c>
-      <c r="L2" s="8">
-        <v>117197890599.05746</v>
-      </c>
-      <c r="M2" s="8">
-        <v>30010032360.898987</v>
-      </c>
-      <c r="N2">
-        <v>41443297403.983681</v>
-      </c>
-      <c r="O2">
-        <v>51754428390.368622</v>
-      </c>
-      <c r="P2">
-        <v>144459676473.83945</v>
-      </c>
-      <c r="Q2">
-        <v>43118729049.814995</v>
-      </c>
-      <c r="R2">
-        <v>24264504681.098824</v>
-      </c>
-      <c r="S2">
-        <v>45364714141.179749</v>
-      </c>
-      <c r="T2">
-        <v>57646434048.190636</v>
-      </c>
-      <c r="U2">
-        <v>85902681748.566559</v>
-      </c>
-      <c r="V2">
-        <v>29574042110.059616</v>
-      </c>
-      <c r="W2">
-        <v>49440829325.322655</v>
-      </c>
-      <c r="X2">
-        <v>132779895295.27417</v>
-      </c>
-      <c r="Y2">
-        <v>414635719092.72333</v>
-      </c>
-      <c r="Z2">
-        <v>269820633350.3504</v>
-      </c>
-      <c r="AA2">
-        <v>214932713812.93326</v>
-      </c>
-      <c r="AB2">
-        <v>57192800468.320839</v>
-      </c>
-      <c r="AC2">
-        <v>19292746516.072689</v>
-      </c>
-      <c r="AD2">
-        <v>59535847453.136276</v>
-      </c>
-      <c r="AE2">
-        <v>115283665621.45332</v>
-      </c>
-      <c r="AF2">
-        <v>170515079644.07617</v>
-      </c>
-      <c r="AG2">
-        <v>169848239250.34912</v>
-      </c>
-      <c r="AH2">
-        <v>121816260402.4184</v>
-      </c>
-      <c r="AI2">
-        <v>151523496228.54056</v>
-      </c>
-      <c r="AJ2">
-        <v>91367014492.631332</v>
-      </c>
-      <c r="AK2">
-        <v>48820291910.706825</v>
-      </c>
-      <c r="AL2">
-        <v>61875213447.98053</v>
-      </c>
-      <c r="AM2">
-        <v>3388738741.1029592</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6BC743-91D3-4235-AE27-EEFAEE9E1E35}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
@@ -1751,10 +1704,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1864,7 +1817,7 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>328341108780.38287</v>
@@ -1986,11 +1939,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8346C0-FABB-47BF-AF3B-034E07B222E3}">
   <dimension ref="A1:CA33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -2011,142 +1964,142 @@
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="12"/>
       <c r="I1" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:47" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="O2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="Q2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="S2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="T2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="U2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="V2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="W2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="X2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="Y2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="Z2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="AA2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="AB2" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="AC2" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AD2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AE2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AF2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AG2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AH2" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AI2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="AG2" s="16" t="s">
+      <c r="AJ2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AH2" s="16" t="s">
+      <c r="AK2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AL2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AM2" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AK2" s="16" t="s">
+      <c r="AN2" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AL2" s="16" t="s">
+      <c r="AO2" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AP2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="AN2" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP2" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="AR2" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.35">
@@ -2154,10 +2107,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" s="13">
         <v>48615.28137267987</v>
@@ -2285,10 +2238,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D4" s="13">
         <v>2573.9076514444591</v>
@@ -2407,11 +2360,11 @@
       <c r="AP4" s="13">
         <v>377170.69925521885</v>
       </c>
-      <c r="AR4" s="22" t="s">
+      <c r="AR4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS4" t="s">
         <v>45</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>46</v>
       </c>
       <c r="AT4" t="s">
         <v>3</v>
@@ -2425,10 +2378,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D5" s="13">
         <v>2262.5609948048482</v>
@@ -2556,10 +2509,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" s="13">
         <v>4929.3554663259183</v>
@@ -2687,10 +2640,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D7" s="13">
         <v>1739.7574640381897</v>
@@ -2818,10 +2771,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D8" s="13">
         <v>767.66045556620111</v>
@@ -2949,10 +2902,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D9" s="13">
         <v>615.95001103458503</v>
@@ -3080,10 +3033,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10" s="13">
         <v>1633.228669791499</v>
@@ -3214,10 +3167,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D11" s="13">
         <v>786.99464348630215</v>
@@ -3345,10 +3298,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D12" s="13">
         <v>1039.2109880808557</v>
@@ -3476,10 +3429,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D13" s="13">
         <v>3560.5339113421928</v>
@@ -3610,10 +3563,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D14" s="13">
         <v>2169.8865419590766</v>
@@ -3741,10 +3694,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D15" s="13">
         <v>971.69269339682762</v>
@@ -3875,10 +3828,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D16" s="13">
         <v>1820.1804103711806</v>
@@ -4009,10 +3962,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D17" s="13">
         <v>1141.2967066163565</v>
@@ -4140,10 +4093,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D18" s="13">
         <v>2808.8912709025176</v>
@@ -4271,10 +4224,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D19" s="13">
         <v>7240.8860969720763</v>
@@ -4402,10 +4355,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D20" s="13">
         <v>9270.373697385201</v>
@@ -4533,10 +4486,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D21" s="13">
         <v>776.964612115877</v>
@@ -4664,10 +4617,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D22" s="13">
         <v>4445.6884750106819</v>
@@ -4795,10 +4748,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D23" s="13">
         <v>997.8546703969688</v>
@@ -4929,10 +4882,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D24" s="13">
         <v>3553.8854377935659</v>
@@ -5060,10 +5013,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D25" s="13">
         <v>1293.9096783322786</v>
@@ -5191,10 +5144,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D26" s="13">
         <v>6956.7305210220875</v>
@@ -5322,10 +5275,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D27" s="13">
         <v>2620.1471338643441</v>
@@ -5453,10 +5406,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D28" s="13">
         <v>1119.0388161175215</v>
@@ -5584,10 +5537,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D29" s="13">
         <v>18196.667615335202</v>
@@ -5722,136 +5675,136 @@
     <row r="30" spans="1:79" x14ac:dyDescent="0.35">
       <c r="C30" s="21"/>
     </row>
-    <row r="31" spans="1:79" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-    </row>
-    <row r="32" spans="1:79" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23"/>
-      <c r="AP32" s="24" t="s">
+    <row r="31" spans="1:79" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="AP32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AQ32" s="24" t="s">
+      <c r="AQ32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AR32" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS32" s="24" t="s">
+      <c r="AS32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AT32" s="24" t="s">
+      <c r="AT32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AU32" s="24" t="s">
+      <c r="AU32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AV32" s="24" t="s">
+      <c r="AV32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AW32" s="24" t="s">
+      <c r="AW32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AX32" s="24" t="s">
+      <c r="AX32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AY32" s="24" t="s">
+      <c r="AY32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AZ32" s="24" t="s">
+      <c r="AZ32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="BA32" s="24" t="s">
+      <c r="BA32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="BB32" s="24" t="s">
+      <c r="BB32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="BC32" s="24" t="s">
+      <c r="BC32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="BD32" s="24" t="s">
+      <c r="BD32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BE32" s="24" t="s">
+      <c r="BE32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BF32" s="24" t="s">
+      <c r="BF32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BG32" s="24" t="s">
+      <c r="BG32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BH32" s="24" t="s">
+      <c r="BH32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="BI32" s="24" t="s">
+      <c r="BI32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BJ32" s="24" t="s">
+      <c r="BJ32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BK32" s="24" t="s">
+      <c r="BK32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BL32" s="24" t="s">
+      <c r="BL32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BM32" s="24" t="s">
+      <c r="BM32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="BN32" s="24" t="s">
+      <c r="BN32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="BO32" s="24" t="s">
+      <c r="BO32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BP32" s="24" t="s">
+      <c r="BP32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BQ32" s="24" t="s">
+      <c r="BQ32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BR32" s="24" t="s">
+      <c r="BR32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BS32" s="24" t="s">
+      <c r="BS32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BT32" s="24" t="s">
+      <c r="BT32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BU32" s="24" t="s">
+      <c r="BU32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BV32" s="24" t="s">
+      <c r="BV32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="BW32" s="24" t="s">
+      <c r="BW32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BX32" s="24" t="s">
+      <c r="BX32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BY32" s="24" t="s">
+      <c r="BY32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="BZ32" s="24" t="s">
+      <c r="BZ32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="CA32" s="24" t="s">
+      <c r="CA32" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
       <c r="C33" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP33" s="25">
+        <v>146</v>
+      </c>
+      <c r="AP33" s="22">
         <f>AP3</f>
         <v>3016276.761485788</v>
       </c>
@@ -5871,23 +5824,23 @@
         <f>$AP$4*BVAbIC!F2/SUM(BVAbIC!$C$2:$F$2)</f>
         <v>61344.394645466396</v>
       </c>
-      <c r="AU33" s="25">
+      <c r="AU33" s="22">
         <f>AP5</f>
         <v>330684.91620523349</v>
       </c>
-      <c r="AV33" s="25">
+      <c r="AV33" s="22">
         <f>AP6</f>
         <v>360847.42818952532</v>
       </c>
-      <c r="AW33" s="25">
+      <c r="AW33" s="22">
         <f>AP7</f>
         <v>46706.534078749464</v>
       </c>
-      <c r="AX33" s="25">
+      <c r="AX33" s="22">
         <f>AP8</f>
         <v>72734.773373562013</v>
       </c>
-      <c r="AY33" s="25">
+      <c r="AY33" s="22">
         <f>AP9</f>
         <v>154351.46515237822</v>
       </c>
@@ -5899,19 +5852,19 @@
         <f>$AP$10*BVAbIC!M2/SUM(BVAbIC!$L$2:$M$2)</f>
         <v>158603.84044379569</v>
       </c>
-      <c r="BB33" s="25">
+      <c r="BB33" s="22">
         <f>AP11</f>
         <v>103351.53247349204</v>
       </c>
-      <c r="BC33" s="25">
+      <c r="BC33" s="22">
         <f>AP12</f>
         <v>178739.77877397044</v>
       </c>
-      <c r="BD33" s="25">
+      <c r="BD33" s="22">
         <f>$AP$13*BVAbIC!P2/SUM(BVAbIC!$P$2:$Q$2)</f>
         <v>217074.40408977863</v>
       </c>
-      <c r="BE33" s="25">
+      <c r="BE33" s="22">
         <f>$AP$13*BVAbIC!Q2/SUM(BVAbIC!$P$2:$Q$2)</f>
         <v>148116.84495414418</v>
       </c>
@@ -5923,7 +5876,7 @@
         <f>$AP$15*BVAbIC!S2/SUM(BVAbIC!$R$2:$S$2)</f>
         <v>98819.254419968158</v>
       </c>
-      <c r="BH33" s="25">
+      <c r="BH33" s="22">
         <f>AP14</f>
         <v>196668.24333522591</v>
       </c>
@@ -5935,27 +5888,27 @@
         <f>$AP$16*BVAbIC!V2/SUM(BVAbIC!$U$2:$V$2)</f>
         <v>112745.59978200207</v>
       </c>
-      <c r="BK33" s="25">
+      <c r="BK33" s="22">
         <f>AP17</f>
         <v>91497.022902869488</v>
       </c>
-      <c r="BL33" s="25">
+      <c r="BL33" s="22">
         <f>AP18</f>
         <v>450631.02284800453</v>
       </c>
-      <c r="BM33" s="25">
+      <c r="BM33" s="22">
         <f>AP19</f>
         <v>1349795.3351642715</v>
       </c>
-      <c r="BN33" s="25">
+      <c r="BN33" s="22">
         <f>AP20</f>
         <v>1954298.1280546889</v>
       </c>
-      <c r="BO33" s="25">
+      <c r="BO33" s="22">
         <f>AP22</f>
         <v>807245.16088658175</v>
       </c>
-      <c r="BP33" s="25">
+      <c r="BP33" s="22">
         <f>AP21</f>
         <v>180689.52560832261</v>
       </c>
@@ -5967,39 +5920,39 @@
         <f>$AP$23*BVAbIC!AD2/SUM(BVAbIC!$AC$2:$AD$2)</f>
         <v>199889.03058834118</v>
       </c>
-      <c r="BS33" s="26">
+      <c r="BS33" s="22">
         <f>AP29*BVAbIC!AE2/SUM(BVAbIC!AE2,BVAbIC!AG2,BVAbIC!AL2,BVAbIC!AM2)</f>
         <v>463709.76111986942</v>
       </c>
-      <c r="BT33" s="26">
+      <c r="BT33" s="22">
         <f>AP24</f>
         <v>955343.81153195072</v>
       </c>
-      <c r="BU33" s="26">
+      <c r="BU33" s="22">
         <f>AP29*BVAbIC!AG2/SUM(BVAbIC!AE2,BVAbIC!AG2,BVAbIC!AL2,BVAbIC!AM2)</f>
         <v>835097.40387830778</v>
       </c>
-      <c r="BV33" s="26">
+      <c r="BV33" s="22">
         <f>AP25</f>
         <v>1397193.0307692203</v>
       </c>
-      <c r="BW33" s="26">
+      <c r="BW33" s="22">
         <f>AP26</f>
         <v>1044717.7249150213</v>
       </c>
-      <c r="BX33" s="26">
+      <c r="BX33" s="22">
         <f>AP27</f>
         <v>746043.19811538002</v>
       </c>
-      <c r="BY33" s="26">
+      <c r="BY33" s="22">
         <f>AP28</f>
         <v>283208.76536354102</v>
       </c>
-      <c r="BZ33" s="26">
+      <c r="BZ33" s="22">
         <f>AP29*BVAbIC!AL2/SUM(BVAbIC!AE2,BVAbIC!AG2,BVAbIC!AL2,BVAbIC!AM2)</f>
         <v>216045.6208233728</v>
       </c>
-      <c r="CA33" s="26">
+      <c r="CA33" s="22">
         <f>AP29*BVAbIC!AM2/SUM(BVAbIC!AE2,BVAbIC!AG2,BVAbIC!AL2,BVAbIC!AM2)</f>
         <v>20364.736568688029</v>
       </c>
@@ -6012,17 +5965,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E0573A-6BCD-4941-A247-E04B8BFB2C70}">
-  <dimension ref="A1:AM84"/>
+  <dimension ref="A1:AM91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AM6"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="31.26953125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.35">
@@ -6058,7 +6013,7 @@
         <f>'KLEMS VA'!AW32</f>
         <v>ISIC 16</v>
       </c>
-      <c r="J1" t="str">
+      <c r="J1" s="10" t="str">
         <f>'KLEMS VA'!AX32</f>
         <v>ISIC 17T18</v>
       </c>
@@ -6181,7 +6136,7 @@
     </row>
     <row r="2" spans="1:39" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <f>'KLEMS VA'!AP33</f>
@@ -6215,7 +6170,7 @@
         <f>'KLEMS VA'!AW33</f>
         <v>46706.534078749464</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="10">
         <f>'KLEMS VA'!AX33</f>
         <v>72734.773373562013</v>
       </c>
@@ -6338,35 +6293,35 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="B3">
-        <f>SUMIF($D$11:$D$84,B1,$B$11:$B$84)</f>
-        <v>3317.69</v>
+        <f>SUMIF($D$9:$D$91,B1,$B$9:$B$91)</f>
+        <v>1372.74</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:AM3" si="0">SUMIF($D$11:$D$84,C1,$B$11:$B$84)</f>
-        <v>0</v>
+        <f t="shared" ref="C3:AM3" si="0">SUMIF($D$9:$D$91,C1,$B$9:$B$91)</f>
+        <v>9292.34</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13369.23</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6997.8600000000006</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>1665.85</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>11041.539999999999</v>
+        <v>9480.84</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>3977.42</v>
+        <v>4279.62</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -6374,31 +6329,31 @@
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>3041.27</v>
+        <v>1700.9</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21568.27</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>7516.88</v>
+        <v>12172.930000000002</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>13290.65</v>
+        <v>16249.56</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>2004.04</v>
+        <v>3358.1099999999997</v>
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>3754.57</v>
+        <v>3506.82</v>
       </c>
       <c r="P3">
         <f t="shared" si="0"/>
-        <v>3313.79</v>
+        <v>11521.97</v>
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
@@ -6406,19 +6361,19 @@
       </c>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>5033.96</v>
+        <v>1706.14</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3793.39</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>12217.87</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>18880.259999999998</v>
+        <v>23272.83</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
@@ -6426,51 +6381,51 @@
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>40920.81</v>
+        <v>13369.86</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>172.95000000000002</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>12585.349999999999</v>
+        <v>16873.3</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>17520.91</v>
+        <v>25325.18</v>
       </c>
       <c r="AA3">
         <f t="shared" si="0"/>
-        <v>2339.9699999999998</v>
+        <v>5361.99</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>1404.6</v>
+        <v>1924.99</v>
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>1944.01</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <f t="shared" si="0"/>
-        <v>788.22</v>
+        <v>6207.68</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>43469.96</v>
+        <v>54452.67</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>95085.89</v>
+        <v>105586.82999999999</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>81.52</v>
+        <v>6682.16</v>
       </c>
       <c r="AH3">
         <f t="shared" si="0"/>
-        <v>37202.200000000004</v>
+        <v>36066.57</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
@@ -6478,15 +6433,15 @@
       </c>
       <c r="AJ3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>776.54</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
-        <v>770.3599999999999</v>
+        <v>2296.96</v>
       </c>
       <c r="AL3">
         <f t="shared" si="0"/>
-        <v>1659.34</v>
+        <v>3641.8500000000004</v>
       </c>
       <c r="AM3">
         <f t="shared" si="0"/>
@@ -6495,1317 +6450,1704 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="32">
+        <v>153</v>
+      </c>
+      <c r="B4" s="27">
         <f>B3/B2</f>
-        <v>1.0999289065124578E-3</v>
-      </c>
-      <c r="C4" s="32">
+        <v>4.551107569199989E-4</v>
+      </c>
+      <c r="C4" s="27">
         <f t="shared" ref="C4:AM4" si="1">C3/C2</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="32">
+        <v>5.593526565219218E-2</v>
+      </c>
+      <c r="D4" s="27">
+        <f t="shared" si="1"/>
+        <v>0.1262807486599779</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" si="1"/>
+        <v>0.15965725090655994</v>
+      </c>
+      <c r="F4" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E4" s="32">
+      <c r="G4" s="27">
+        <f t="shared" si="1"/>
+        <v>2.8670312842802578E-2</v>
+      </c>
+      <c r="H4" s="27">
+        <f t="shared" si="1"/>
+        <v>1.1859915481376927E-2</v>
+      </c>
+      <c r="I4" s="28">
+        <f>$B$40/SUM(I2,Q2,S2,W2,T2)</f>
+        <v>0.12340408240956703</v>
+      </c>
+      <c r="J4" s="32">
+        <f t="shared" si="1"/>
+        <v>2.3384963217858205E-2</v>
+      </c>
+      <c r="K4" s="27">
+        <f t="shared" si="1"/>
+        <v>0.1397347927906448</v>
+      </c>
+      <c r="L4" s="27">
+        <f t="shared" si="1"/>
+        <v>4.7538133202642378E-2</v>
+      </c>
+      <c r="M4" s="27">
+        <f t="shared" si="1"/>
+        <v>0.10245376123637021</v>
+      </c>
+      <c r="N4" s="27">
+        <f t="shared" si="1"/>
+        <v>3.2492116175067837E-2</v>
+      </c>
+      <c r="O4" s="27">
+        <f t="shared" si="1"/>
+        <v>1.9619695313792637E-2</v>
+      </c>
+      <c r="P4" s="27">
+        <f t="shared" si="1"/>
+        <v>5.3078436623208186E-2</v>
+      </c>
+      <c r="Q4" s="28">
+        <f>$B$40/SUM(I2,Q2,S2,W2,T2)</f>
+        <v>0.12340408240956703</v>
+      </c>
+      <c r="R4" s="27">
+        <f t="shared" si="1"/>
+        <v>3.2902309613663999E-2</v>
+      </c>
+      <c r="S4" s="28">
+        <f>$B$40/SUM(I2,Q2,S2,W2,T2)</f>
+        <v>0.12340408240956703</v>
+      </c>
+      <c r="T4" s="28">
+        <f>$B$40/SUM(I2,Q2,S2,W2,T2)</f>
+        <v>0.12340408240956703</v>
+      </c>
+      <c r="U4" s="28">
+        <f>SUM(B24,B39)/SUM(U2:V2)</f>
+        <v>3.3170263994030037E-2</v>
+      </c>
+      <c r="V4" s="28">
+        <f>U4</f>
+        <v>3.3170263994030037E-2</v>
+      </c>
+      <c r="W4" s="28">
+        <f>$B$40/SUM(I2,Q2,S2,W2,T2)</f>
+        <v>0.12340408240956703</v>
+      </c>
+      <c r="X4" s="27">
+        <f t="shared" si="1"/>
+        <v>3.8379514776179789E-4</v>
+      </c>
+      <c r="Y4" s="27">
+        <f t="shared" si="1"/>
+        <v>1.2500635881917981E-2</v>
+      </c>
+      <c r="Z4" s="27">
+        <f t="shared" si="1"/>
+        <v>1.2958708620986461E-2</v>
+      </c>
+      <c r="AA4" s="27">
+        <f t="shared" si="1"/>
+        <v>6.6423315490811118E-3</v>
+      </c>
+      <c r="AB4" s="27">
+        <f t="shared" si="1"/>
+        <v>1.0653578249869147E-2</v>
+      </c>
+      <c r="AC4" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4" s="32">
+      <c r="AD4" s="27">
         <f t="shared" si="1"/>
-        <v>2.7155700363946995E-2</v>
-      </c>
-      <c r="G4" s="32">
+        <v>3.1055631125573493E-2</v>
+      </c>
+      <c r="AE4" s="27">
         <f t="shared" si="1"/>
-        <v>3.3389911238489244E-2</v>
-      </c>
-      <c r="H4" s="32">
+        <v>0.11742834541264688</v>
+      </c>
+      <c r="AF4" s="27">
         <f t="shared" si="1"/>
-        <v>1.1022442421041638E-2</v>
-      </c>
-      <c r="I4" s="33">
-        <f>B34/SUM(I2,Q2,S2,W2,T2)</f>
-        <v>7.0333885156485795E-2</v>
-      </c>
-      <c r="J4" s="32">
+        <v>0.11052233627879497</v>
+      </c>
+      <c r="AG4" s="27">
         <f t="shared" si="1"/>
-        <v>4.1813150147319435E-2</v>
-      </c>
-      <c r="K4" s="32">
+        <v>8.0016534226631832E-3</v>
+      </c>
+      <c r="AH4" s="27">
+        <f t="shared" si="1"/>
+        <v>2.5813591397706628E-2</v>
+      </c>
+      <c r="AI4" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L4" s="32">
+      <c r="AJ4" s="27">
         <f t="shared" si="1"/>
-        <v>2.9355171081101951E-2</v>
-      </c>
-      <c r="M4" s="32">
+        <v>1.0408780643824105E-3</v>
+      </c>
+      <c r="AK4" s="27">
         <f t="shared" si="1"/>
-        <v>8.3797781710776398E-2</v>
-      </c>
-      <c r="N4" s="32">
+        <v>8.1104834345487389E-3</v>
+      </c>
+      <c r="AL4" s="27">
         <f t="shared" si="1"/>
-        <v>1.9390520411625277E-2</v>
-      </c>
-      <c r="O4" s="32">
-        <f t="shared" si="1"/>
-        <v>2.1005788558952673E-2</v>
-      </c>
-      <c r="P4" s="32">
-        <f t="shared" si="1"/>
-        <v>1.5265687421302179E-2</v>
-      </c>
-      <c r="Q4" s="33">
-        <f>B34/SUM(I2,Q2,S2,W2,T2)</f>
-        <v>7.0333885156485795E-2</v>
-      </c>
-      <c r="R4" s="32">
-        <f t="shared" si="1"/>
-        <v>9.7078147457301298E-2</v>
-      </c>
-      <c r="S4" s="33">
-        <f>B34/SUM(I2,Q2,S2,W2,T2)</f>
-        <v>7.0333885156485795E-2</v>
-      </c>
-      <c r="T4" s="33">
-        <f>B34/SUM(I2,Q2,S2,W2,T2)+B17/T2</f>
-        <v>0.13245814982068141</v>
-      </c>
-      <c r="U4" s="33">
-        <f>B12/SUM(U2:V2)</f>
-        <v>5.5659133191245241E-2</v>
-      </c>
-      <c r="V4" s="33">
-        <f>U4</f>
-        <v>5.5659133191245241E-2</v>
-      </c>
-      <c r="W4" s="33">
-        <f>B34/SUM(I2,Q2,S2,W2,T2)</f>
-        <v>7.0333885156485795E-2</v>
-      </c>
-      <c r="X4" s="32">
+        <v>1.6856856371911283E-2</v>
+      </c>
+      <c r="AM4" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="32">
-        <f t="shared" si="1"/>
-        <v>9.3238950173645009E-3</v>
-      </c>
-      <c r="Z4" s="32">
-        <f t="shared" si="1"/>
-        <v>8.9653209755874552E-3</v>
-      </c>
-      <c r="AA4" s="32">
-        <f t="shared" si="1"/>
-        <v>2.8987104703483832E-3</v>
-      </c>
-      <c r="AB4" s="32">
-        <f t="shared" si="1"/>
-        <v>7.773555192373053E-3</v>
-      </c>
-      <c r="AC4" s="32">
-        <f t="shared" si="1"/>
-        <v>3.3423267705895161E-2</v>
-      </c>
-      <c r="AD4" s="32">
-        <f t="shared" si="1"/>
-        <v>3.943287921703364E-3</v>
-      </c>
-      <c r="AE4" s="32">
-        <f t="shared" si="1"/>
-        <v>9.374389681817151E-2</v>
-      </c>
-      <c r="AF4" s="32">
-        <f t="shared" si="1"/>
-        <v>9.9530544765369974E-2</v>
-      </c>
-      <c r="AG4" s="32">
-        <f t="shared" si="1"/>
-        <v>9.7617355318565055E-5</v>
-      </c>
-      <c r="AH4" s="32">
-        <f t="shared" si="1"/>
-        <v>2.662638531736624E-2</v>
-      </c>
-      <c r="AI4" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="32">
-        <f t="shared" si="1"/>
-        <v>2.7201135494910513E-3</v>
-      </c>
-      <c r="AL4" s="32">
-        <f t="shared" si="1"/>
-        <v>7.6805074487327216E-3</v>
-      </c>
-      <c r="AM4" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5">
-        <f>BVAbIC!B2/BObIC!B2</f>
-        <v>0.736927112729031</v>
-      </c>
-      <c r="C5">
-        <f>BVAbIC!C2/BObIC!C2</f>
-        <v>1.5775994735542871</v>
-      </c>
-      <c r="D5">
-        <f>BVAbIC!D2/BObIC!D2</f>
-        <v>0.57222784748782496</v>
-      </c>
-      <c r="E5">
-        <f>BVAbIC!E2/BObIC!E2</f>
-        <v>0.41614502338271869</v>
-      </c>
-      <c r="F5">
-        <f>BVAbIC!F2/BObIC!F2</f>
-        <v>0.78191725894828867</v>
-      </c>
-      <c r="G5">
-        <f>BVAbIC!G2/BObIC!G2</f>
-        <v>0.16772894171140207</v>
-      </c>
-      <c r="H5">
-        <f>BVAbIC!H2/BObIC!H2</f>
-        <v>0.29846878852263004</v>
-      </c>
-      <c r="I5">
-        <f>BVAbIC!I2/BObIC!I2</f>
-        <v>0.36624367687054377</v>
-      </c>
-      <c r="J5">
-        <f>BVAbIC!J2/BObIC!J2</f>
-        <v>0.30210805528409884</v>
-      </c>
-      <c r="K5">
-        <f>BVAbIC!K2/BObIC!K2</f>
-        <v>0.14653535466826789</v>
-      </c>
-      <c r="L5">
-        <f>BVAbIC!L2/BObIC!L2</f>
-        <v>0.24217893129263493</v>
-      </c>
-      <c r="M5">
-        <f>BVAbIC!M2/BObIC!M2</f>
-        <v>0.5858013759163575</v>
-      </c>
-      <c r="N5">
-        <f>BVAbIC!N2/BObIC!N2</f>
-        <v>0.28484779072159166</v>
-      </c>
-      <c r="O5">
-        <f>BVAbIC!O2/BObIC!O2</f>
-        <v>0.34694175493236656</v>
-      </c>
-      <c r="P5">
-        <f>BVAbIC!P2/BObIC!P2</f>
-        <v>0.14191156452549514</v>
-      </c>
-      <c r="Q5">
-        <f>BVAbIC!Q2/BObIC!Q2</f>
-        <v>0.32441005733182365</v>
-      </c>
-      <c r="R5">
-        <f>BVAbIC!R2/BObIC!R2</f>
-        <v>0.30635953531079085</v>
-      </c>
-      <c r="S5">
-        <f>BVAbIC!S2/BObIC!S2</f>
-        <v>0.31227552454122659</v>
-      </c>
-      <c r="T5">
-        <f>BVAbIC!T2/BObIC!T2</f>
-        <v>0.32529213479369923</v>
-      </c>
-      <c r="U5">
-        <f>BVAbIC!U2/BObIC!U2</f>
-        <v>0.26284844384303113</v>
-      </c>
-      <c r="V5">
-        <f>BVAbIC!V2/BObIC!V2</f>
-        <v>0.38009904946577489</v>
-      </c>
-      <c r="W5">
-        <f>BVAbIC!W2/BObIC!W2</f>
-        <v>0.23237975442453171</v>
-      </c>
-      <c r="X5">
-        <f>BVAbIC!X2/BObIC!X2</f>
-        <v>0.37444919779854213</v>
-      </c>
-      <c r="Y5">
-        <f>BVAbIC!Y2/BObIC!Y2</f>
-        <v>0.35310074051265611</v>
-      </c>
-      <c r="Z5">
-        <f>BVAbIC!Z2/BObIC!Z2</f>
-        <v>0.71357077260987667</v>
-      </c>
-      <c r="AA5">
-        <f>BVAbIC!AA2/BObIC!AA2</f>
-        <v>0.44823480259976373</v>
-      </c>
-      <c r="AB5">
-        <f>BVAbIC!AB2/BObIC!AB2</f>
-        <v>0.32526392273961374</v>
-      </c>
-      <c r="AC5">
-        <f>BVAbIC!AC2/BObIC!AC2</f>
-        <v>0.37797303743127553</v>
-      </c>
-      <c r="AD5">
-        <f>BVAbIC!AD2/BObIC!AD2</f>
-        <v>0.42093565481681788</v>
-      </c>
-      <c r="AE5">
-        <f>BVAbIC!AE2/BObIC!AE2</f>
-        <v>0.66932608693825513</v>
-      </c>
-      <c r="AF5">
-        <f>BVAbIC!AF2/BObIC!AF2</f>
-        <v>0.62928397754902632</v>
-      </c>
-      <c r="AG5">
-        <f>BVAbIC!AG2/BObIC!AG2</f>
-        <v>0.81815459827671555</v>
-      </c>
-      <c r="AH5">
-        <f>BVAbIC!AH2/BObIC!AH2</f>
-        <v>0.53217016938531914</v>
-      </c>
-      <c r="AI5">
-        <f>BVAbIC!AI2/BObIC!AI2</f>
-        <v>0.71242673683564506</v>
-      </c>
-      <c r="AJ5">
-        <f>BVAbIC!AJ2/BObIC!AJ2</f>
-        <v>0.75531960008905763</v>
-      </c>
-      <c r="AK5">
-        <f>BVAbIC!AK2/BObIC!AK2</f>
-        <v>0.58667981515396228</v>
-      </c>
-      <c r="AL5">
-        <f>BVAbIC!AL2/BObIC!AL2</f>
-        <v>0.58101594189965811</v>
-      </c>
-      <c r="AM5">
-        <f>BVAbIC!AM2/BObIC!AM2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="32">
-        <f>B4/B5</f>
-        <v>1.4925884629744964E-3</v>
-      </c>
-      <c r="C6" s="32">
-        <f t="shared" ref="C6:AM6" si="2">C4/C5</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="32">
-        <f t="shared" si="2"/>
-        <v>3.4729634182103286E-2</v>
-      </c>
-      <c r="G6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.19907066066117929</v>
-      </c>
-      <c r="H6" s="32">
-        <f t="shared" si="2"/>
-        <v>3.6929966699703713E-2</v>
-      </c>
-      <c r="I6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.19204122718915015</v>
-      </c>
-      <c r="J6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.13840461853292474</v>
-      </c>
-      <c r="K6" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.1212127368983674</v>
-      </c>
-      <c r="M6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.14304811350040478</v>
-      </c>
-      <c r="N6" s="32">
-        <f t="shared" si="2"/>
-        <v>6.8073269455607058E-2</v>
-      </c>
-      <c r="O6" s="32">
-        <f t="shared" si="2"/>
-        <v>6.0545576484581913E-2</v>
-      </c>
-      <c r="P6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.10757183512383602</v>
-      </c>
-      <c r="Q6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.21680550145381158</v>
-      </c>
-      <c r="R6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.31687653318451137</v>
-      </c>
-      <c r="S6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.22523022020318573</v>
-      </c>
-      <c r="T6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.40719751771645685</v>
-      </c>
-      <c r="U6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.21175371015125347</v>
-      </c>
-      <c r="V6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.14643323436213154</v>
-      </c>
-      <c r="W6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.30266786937038281</v>
-      </c>
-      <c r="X6" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="32">
-        <f t="shared" si="2"/>
-        <v>2.6405764552709304E-2</v>
-      </c>
-      <c r="Z6" s="32">
-        <f t="shared" si="2"/>
-        <v>1.256402492887552E-2</v>
-      </c>
-      <c r="AA6" s="32">
-        <f t="shared" si="2"/>
-        <v>6.4669464609527199E-3</v>
-      </c>
-      <c r="AB6" s="32">
-        <f t="shared" si="2"/>
-        <v>2.3899223519468164E-2</v>
-      </c>
-      <c r="AC6" s="32">
-        <f t="shared" si="2"/>
-        <v>8.8427650641541608E-2</v>
-      </c>
-      <c r="AD6" s="32">
-        <f t="shared" si="2"/>
-        <v>9.3679114054127776E-3</v>
-      </c>
-      <c r="AE6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.14005713903516107</v>
-      </c>
-      <c r="AF6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.15816475282435702</v>
-      </c>
-      <c r="AG6" s="32">
-        <f t="shared" si="2"/>
-        <v>1.193140703776244E-4</v>
-      </c>
-      <c r="AH6" s="32">
-        <f t="shared" si="2"/>
-        <v>5.0033592352838815E-2</v>
-      </c>
-      <c r="AI6" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK6" s="32">
-        <f t="shared" si="2"/>
-        <v>4.6364532735410583E-3</v>
-      </c>
-      <c r="AL6" s="32">
-        <f t="shared" si="2"/>
-        <v>1.321909933077043E-2</v>
-      </c>
-      <c r="AM6" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" t="s">
-        <v>152</v>
-      </c>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="31">
+        <v>319.41000000000003</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="31">
+        <v>343.64</v>
+      </c>
+      <c r="C10" s="31"/>
       <c r="D10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11">
-        <v>3317.69</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="31">
+        <v>183.95</v>
+      </c>
+      <c r="C11" s="31"/>
       <c r="D11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12">
-        <v>18880.259999999998</v>
-      </c>
+      <c r="E11" s="31"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="31">
+        <v>442.67</v>
+      </c>
+      <c r="C12" s="31"/>
       <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="31">
+        <v>16.59</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:39" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="31">
+        <v>5.18</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="31">
+        <v>61.3</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="31">
+        <v>13369.23</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="31">
+        <v>9292.34</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="31">
+        <v>2360.77</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="31">
+        <v>2060.15</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="31">
+        <v>2576.94</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="31">
+        <v>21568.27</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="31">
+        <v>16249.56</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="31">
+        <v>12021.07</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E23" s="31"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="31">
+        <v>9723.18</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="34" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13">
-        <v>2771.08</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="31">
+        <v>11521.97</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="31">
+        <v>7941.02</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="31">
+        <v>6143.59</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="31">
+        <v>4279.62</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" s="31">
+        <v>3793.39</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" s="31">
+        <v>3506.82</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14">
-        <v>790.47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15">
-        <v>13290.65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16">
-        <v>5033.96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17">
-        <v>12217.87</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18">
-        <v>7516.88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19">
-        <v>313.41000000000003</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20">
-        <v>3082.41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21">
-        <v>193.02</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B22">
-        <v>798.39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B23">
-        <v>28506.84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24">
-        <v>12447.69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25">
-        <v>2242.88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26">
-        <v>315.29000000000002</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27">
-        <v>3313.79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28">
-        <v>942.04</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29">
-        <v>427.34</v>
-      </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30">
-        <v>3977.42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31">
-        <v>5600.44</v>
-      </c>
+      <c r="E30" s="31"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" s="31">
+        <v>3337.25</v>
+      </c>
+      <c r="C31" s="31"/>
       <c r="D31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="E31" s="31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="31">
+        <v>1706.14</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" s="31">
+        <v>484.53</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34" s="31">
+        <v>1958.45</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" s="31">
+        <v>2063.5</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" s="31">
+        <v>1788.93</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="31">
+        <v>1294.6099999999999</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="31">
+        <v>1700.9</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="31">
+        <v>1528.58</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40" s="31">
+        <v>71797.47</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="31"/>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" s="31">
+        <v>10370.07</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" s="31">
+        <v>2999.79</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" s="31">
+        <v>15.37</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" s="31">
+        <v>157.58000000000001</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A45" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B45" s="31">
+        <v>6614.91</v>
+      </c>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B46" s="31">
+        <v>3515.92</v>
+      </c>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47" s="31">
+        <v>6742.47</v>
+      </c>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48" s="31">
+        <v>1464.42</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49" s="31">
+        <v>1359.58</v>
+      </c>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="B50" s="31">
+        <v>550.49</v>
+      </c>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="31">
+        <v>401.63</v>
+      </c>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" s="31">
+        <v>2906.04</v>
+      </c>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B53" s="31">
+        <v>289.60000000000002</v>
+      </c>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B54" s="31">
+        <v>3285.67</v>
+      </c>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="B55" s="31">
+        <v>1003.2</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" s="31">
+        <v>1175.3499999999999</v>
+      </c>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="31"/>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B57" s="31">
+        <v>759.47</v>
+      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="31"/>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58" s="31">
+        <v>623.25</v>
+      </c>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B59" s="31">
+        <v>18478.240000000002</v>
+      </c>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="31"/>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B60" s="31">
+        <v>1924.99</v>
+      </c>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="31"/>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B61" s="31">
+        <v>193.61</v>
+      </c>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="31"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B62" s="31">
+        <v>816.79</v>
+      </c>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="31"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B63" s="31">
+        <v>4351.59</v>
+      </c>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="31"/>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B64" s="31">
+        <v>6207.68</v>
+      </c>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="31"/>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B65" s="31">
+        <v>38773.71</v>
+      </c>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="31"/>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B66" s="31">
+        <v>9469.0499999999993</v>
+      </c>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="31"/>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B67" s="31">
+        <v>7026.33</v>
+      </c>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="31"/>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="B68" s="31">
+        <v>50317.74</v>
+      </c>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="31"/>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="B69" s="31">
+        <v>37416.19</v>
+      </c>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="31"/>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B70" s="31">
+        <v>15381.53</v>
+      </c>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="31"/>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B71" s="31">
+        <v>2005.41</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="31"/>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" s="31">
+        <v>1654.95</v>
+      </c>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="31"/>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B73" s="31">
+        <v>352.3</v>
+      </c>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="31"/>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A74" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" s="31">
+        <v>1751.49</v>
+      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="31"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B75" s="31">
+        <v>82.87</v>
+      </c>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="31"/>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B76" s="31">
+        <v>518.72</v>
+      </c>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="B77" s="31">
+        <v>63.79</v>
+      </c>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="31"/>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="B78" s="31">
+        <v>1292.93</v>
+      </c>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="31"/>
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B79" s="31">
+        <v>208.3</v>
+      </c>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="31"/>
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B80" s="31">
+        <v>61.54</v>
+      </c>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="31"/>
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B81" s="31">
+        <v>506.7</v>
+      </c>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="31"/>
+      <c r="J81"/>
+    </row>
+    <row r="82" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B82" s="31">
+        <v>907.83</v>
+      </c>
+      <c r="C82" s="31"/>
+      <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="31"/>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B83" s="31">
+        <v>407.18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B84" s="31">
+        <v>386.39</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B85" s="31">
+        <v>211.57</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B86" s="31">
+        <v>352.93</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B87" s="31">
+        <v>31.06</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B88" s="31">
+        <v>2286.67</v>
+      </c>
+      <c r="D88" t="s">
+        <v>34</v>
+      </c>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="B89" s="31">
+        <v>345.05</v>
+      </c>
+      <c r="D89" t="s">
+        <v>34</v>
+      </c>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="B90" s="31">
+        <v>1010.13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91" s="31">
+        <v>29709.46</v>
+      </c>
+      <c r="D91" t="s">
+        <v>30</v>
+      </c>
+      <c r="J91"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBF2198-ACE7-443B-806D-39BB8F4197D4}">
+  <dimension ref="A1:AQ4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" s="3" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B32">
-        <v>1688.75</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="L2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B33">
-        <v>675.9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="M2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B34">
-        <v>40920.81</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="N2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B35">
-        <v>519.84</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="O2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B36">
-        <v>2403.4899999999998</v>
-      </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="P2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B37">
-        <v>4576.37</v>
-      </c>
-      <c r="D37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="Q2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B38">
-        <v>9720.8799999999992</v>
-      </c>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="R2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B39">
-        <v>300.33</v>
-      </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="S2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B40">
-        <v>2243.04</v>
-      </c>
-      <c r="D40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="T2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B41">
-        <v>81.52</v>
-      </c>
-      <c r="D41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="U2" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B42">
-        <v>4140.6899999999996</v>
-      </c>
-      <c r="D42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="V2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B43">
-        <v>1102.08</v>
-      </c>
-      <c r="D43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="W2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B44">
-        <v>5097.2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="X2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B45">
-        <v>2.34</v>
-      </c>
-      <c r="D45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="Y2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B46">
-        <v>1665.85</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="Z2" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B47">
-        <v>2478.13</v>
-      </c>
-      <c r="D47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="AA2" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B48">
-        <v>2.64</v>
-      </c>
-      <c r="D48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="AB2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B49">
-        <v>10.24</v>
-      </c>
-      <c r="D49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="AC2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B50">
-        <v>10.49</v>
-      </c>
-      <c r="D50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="AD2" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B51">
-        <v>165.49</v>
-      </c>
-      <c r="D51" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="AE2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B52">
-        <v>117.41</v>
-      </c>
-      <c r="D52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="AF2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B53">
-        <v>487.46</v>
-      </c>
-      <c r="D53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="AG2" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B54">
-        <v>379.76</v>
-      </c>
-      <c r="D54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="AH2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B55">
-        <v>788.22</v>
-      </c>
-      <c r="D55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="AI2" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B56">
-        <v>9.99</v>
-      </c>
-      <c r="D56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B57">
-        <v>3648.89</v>
-      </c>
-      <c r="D57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="AK2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B58">
-        <v>249.85</v>
-      </c>
-      <c r="D58" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="AL2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B59">
-        <v>411.41</v>
-      </c>
-      <c r="D59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="AM2" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B60">
-        <v>43.27</v>
-      </c>
-      <c r="D60" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B61">
-        <v>575.77</v>
-      </c>
-      <c r="D61" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>205</v>
-      </c>
-      <c r="B62">
-        <v>828.83</v>
-      </c>
-      <c r="D62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>206</v>
-      </c>
-      <c r="B63">
-        <v>17158.68</v>
-      </c>
-      <c r="D63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>207</v>
-      </c>
-      <c r="B64">
-        <v>271.06</v>
-      </c>
-      <c r="D64" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>208</v>
-      </c>
-      <c r="B65">
-        <v>25899.87</v>
-      </c>
-      <c r="D65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>209</v>
-      </c>
-      <c r="B66">
-        <v>2339.9699999999998</v>
-      </c>
-      <c r="D66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67">
-        <v>407.83</v>
-      </c>
-      <c r="D67" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G3" s="9">
+        <f>AVERAGE(0.05,0.12)</f>
+        <v>8.4999999999999992E-2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
         <v>211</v>
       </c>
-      <c r="B68">
-        <v>30143.79</v>
-      </c>
-      <c r="D68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>212</v>
-      </c>
-      <c r="B69">
-        <v>47647.94</v>
-      </c>
-      <c r="D69" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>213</v>
-      </c>
-      <c r="B70">
-        <v>169.39</v>
-      </c>
-      <c r="D70" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>214</v>
-      </c>
-      <c r="B71">
-        <v>2657.95</v>
-      </c>
-      <c r="D71" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>215</v>
-      </c>
-      <c r="B72">
-        <v>4880.71</v>
-      </c>
-      <c r="D72" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>216</v>
-      </c>
-      <c r="B73">
-        <v>619.65</v>
-      </c>
-      <c r="D73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>217</v>
-      </c>
-      <c r="B74">
-        <v>48.77</v>
-      </c>
-      <c r="D74" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>218</v>
-      </c>
-      <c r="B75">
-        <v>23221.24</v>
-      </c>
-      <c r="D75" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>219</v>
-      </c>
-      <c r="B76">
-        <v>2847.84</v>
-      </c>
-      <c r="D76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>220</v>
-      </c>
-      <c r="B77">
-        <v>12946.49</v>
-      </c>
-      <c r="D77" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>221</v>
-      </c>
-      <c r="B78">
-        <v>62.22</v>
-      </c>
-      <c r="D78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>222</v>
-      </c>
-      <c r="B79">
-        <v>452.65</v>
-      </c>
-      <c r="D79" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>223</v>
-      </c>
-      <c r="B80">
-        <v>5.27</v>
-      </c>
-      <c r="D80" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>224</v>
-      </c>
-      <c r="B81">
-        <v>400.85</v>
-      </c>
-      <c r="D81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>225</v>
-      </c>
-      <c r="B82">
-        <v>1023.02</v>
-      </c>
-      <c r="D82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83">
-        <v>1251.51</v>
-      </c>
-      <c r="D83" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>227</v>
-      </c>
-      <c r="B84">
-        <v>11189.66</v>
-      </c>
-      <c r="D84" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7813,6 +8155,840 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EB9AFD-4B07-436F-AB69-CEECFB40FA55}">
+  <dimension ref="A1:AM13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="30">
+        <v>581559.30000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B4" t="str">
+        <f>'KLEMS VA'!AP32</f>
+        <v>ISIC 01T03</v>
+      </c>
+      <c r="C4" t="str">
+        <f>'KLEMS VA'!AQ32</f>
+        <v>ISIC 05</v>
+      </c>
+      <c r="D4" t="str">
+        <f>'KLEMS VA'!AR32</f>
+        <v>ISIC 06</v>
+      </c>
+      <c r="E4" t="str">
+        <f>'KLEMS VA'!AS32</f>
+        <v>ISIC 07T08</v>
+      </c>
+      <c r="F4" t="str">
+        <f>'KLEMS VA'!AT32</f>
+        <v>ISIC 09</v>
+      </c>
+      <c r="G4" t="str">
+        <f>'KLEMS VA'!AU32</f>
+        <v>ISIC 10T12</v>
+      </c>
+      <c r="H4" t="str">
+        <f>'KLEMS VA'!AV32</f>
+        <v>ISIC 13T15</v>
+      </c>
+      <c r="I4" t="str">
+        <f>'KLEMS VA'!AW32</f>
+        <v>ISIC 16</v>
+      </c>
+      <c r="J4" t="str">
+        <f>'KLEMS VA'!AX32</f>
+        <v>ISIC 17T18</v>
+      </c>
+      <c r="K4" t="str">
+        <f>'KLEMS VA'!AY32</f>
+        <v>ISIC 19</v>
+      </c>
+      <c r="L4" t="str">
+        <f>'KLEMS VA'!AZ32</f>
+        <v>ISIC 20</v>
+      </c>
+      <c r="M4" t="str">
+        <f>'KLEMS VA'!BA32</f>
+        <v>ISIC 21</v>
+      </c>
+      <c r="N4" t="str">
+        <f>'KLEMS VA'!BB32</f>
+        <v>ISIC 22</v>
+      </c>
+      <c r="O4" t="str">
+        <f>'KLEMS VA'!BC32</f>
+        <v>ISIC 23</v>
+      </c>
+      <c r="P4" t="str">
+        <f>'KLEMS VA'!BD32</f>
+        <v>ISIC 24</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>'KLEMS VA'!BE32</f>
+        <v>ISIC 25</v>
+      </c>
+      <c r="R4" t="str">
+        <f>'KLEMS VA'!BF32</f>
+        <v>ISIC 26</v>
+      </c>
+      <c r="S4" t="str">
+        <f>'KLEMS VA'!BG32</f>
+        <v>ISIC 27</v>
+      </c>
+      <c r="T4" t="str">
+        <f>'KLEMS VA'!BH32</f>
+        <v>ISIC 28</v>
+      </c>
+      <c r="U4" t="str">
+        <f>'KLEMS VA'!BI32</f>
+        <v>ISIC 29</v>
+      </c>
+      <c r="V4" t="str">
+        <f>'KLEMS VA'!BJ32</f>
+        <v>ISIC 30</v>
+      </c>
+      <c r="W4" t="str">
+        <f>'KLEMS VA'!BK32</f>
+        <v>ISIC 31T33</v>
+      </c>
+      <c r="X4" t="str">
+        <f>'KLEMS VA'!BL32</f>
+        <v>ISIC 35T39</v>
+      </c>
+      <c r="Y4" t="str">
+        <f>'KLEMS VA'!BM32</f>
+        <v>ISIC 41T43</v>
+      </c>
+      <c r="Z4" t="str">
+        <f>'KLEMS VA'!BN32</f>
+        <v>ISIC 45T47</v>
+      </c>
+      <c r="AA4" t="str">
+        <f>'KLEMS VA'!BO32</f>
+        <v>ISIC 49T53</v>
+      </c>
+      <c r="AB4" t="str">
+        <f>'KLEMS VA'!BP32</f>
+        <v>ISIC 55T56</v>
+      </c>
+      <c r="AC4" t="str">
+        <f>'KLEMS VA'!BQ32</f>
+        <v>ISIC 58T60</v>
+      </c>
+      <c r="AD4" t="str">
+        <f>'KLEMS VA'!BR32</f>
+        <v>ISIC 61</v>
+      </c>
+      <c r="AE4" t="str">
+        <f>'KLEMS VA'!BS32</f>
+        <v>ISIC 62T63</v>
+      </c>
+      <c r="AF4" t="str">
+        <f>'KLEMS VA'!BT32</f>
+        <v>ISIC 64T66</v>
+      </c>
+      <c r="AG4" t="str">
+        <f>'KLEMS VA'!BU32</f>
+        <v>ISIC 68</v>
+      </c>
+      <c r="AH4" t="str">
+        <f>'KLEMS VA'!BV32</f>
+        <v>ISIC 69T82</v>
+      </c>
+      <c r="AI4" t="str">
+        <f>'KLEMS VA'!BW32</f>
+        <v>ISIC 84</v>
+      </c>
+      <c r="AJ4" t="str">
+        <f>'KLEMS VA'!BX32</f>
+        <v>ISIC 85</v>
+      </c>
+      <c r="AK4" t="str">
+        <f>'KLEMS VA'!BY32</f>
+        <v>ISIC 86T88</v>
+      </c>
+      <c r="AL4" t="str">
+        <f>'KLEMS VA'!BZ32</f>
+        <v>ISIC 90T96</v>
+      </c>
+      <c r="AM4" t="str">
+        <f>'KLEMS VA'!CA32</f>
+        <v>ISIC 97T98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5">
+        <f>'KLEMS VA'!AP33*'Approximate GST Rates'!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>'KLEMS VA'!AQ33*'Approximate GST Rates'!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>'KLEMS VA'!AR33*'Approximate GST Rates'!D3</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>'KLEMS VA'!AS33*'Approximate GST Rates'!E3</f>
+        <v>2191.5258969652205</v>
+      </c>
+      <c r="F5">
+        <f>'KLEMS VA'!AT33*'Approximate GST Rates'!F3</f>
+        <v>7361.3273574559671</v>
+      </c>
+      <c r="G5">
+        <f>'KLEMS VA'!AU33*'Approximate GST Rates'!G3</f>
+        <v>28108.217877444844</v>
+      </c>
+      <c r="H5">
+        <f>'KLEMS VA'!AV33*'Approximate GST Rates'!H3</f>
+        <v>43301.69138274304</v>
+      </c>
+      <c r="I5">
+        <f>'KLEMS VA'!AW33*'Approximate GST Rates'!I3</f>
+        <v>5604.7840894499359</v>
+      </c>
+      <c r="J5">
+        <f>'KLEMS VA'!AX33*'Approximate GST Rates'!J3</f>
+        <v>8728.1728048274417</v>
+      </c>
+      <c r="K5">
+        <f>'KLEMS VA'!AY33*'Approximate GST Rates'!K3</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>'KLEMS VA'!AZ33*'Approximate GST Rates'!L3</f>
+        <v>46091.995044479532</v>
+      </c>
+      <c r="M5">
+        <f>'KLEMS VA'!BA33*'Approximate GST Rates'!M3</f>
+        <v>7930.1920221897853</v>
+      </c>
+      <c r="N5">
+        <f>'KLEMS VA'!BB33*'Approximate GST Rates'!N3</f>
+        <v>5167.5766236746022</v>
+      </c>
+      <c r="O5">
+        <f>'KLEMS VA'!BC33*'Approximate GST Rates'!O3</f>
+        <v>21448.773452876452</v>
+      </c>
+      <c r="P5">
+        <f>'KLEMS VA'!BD33*'Approximate GST Rates'!P3</f>
+        <v>26048.928490773436</v>
+      </c>
+      <c r="Q5">
+        <f>'KLEMS VA'!BE33*'Approximate GST Rates'!Q3</f>
+        <v>26661.03209174595</v>
+      </c>
+      <c r="R5">
+        <f>'KLEMS VA'!BF33*'Approximate GST Rates'!R3</f>
+        <v>9333.849313498109</v>
+      </c>
+      <c r="S5">
+        <f>'KLEMS VA'!BG33*'Approximate GST Rates'!S3</f>
+        <v>11858.310530396178</v>
+      </c>
+      <c r="T5">
+        <f>'KLEMS VA'!BH33*'Approximate GST Rates'!T3</f>
+        <v>23600.189200227109</v>
+      </c>
+      <c r="U5">
+        <f>'KLEMS VA'!BI33*'Approximate GST Rates'!U3</f>
+        <v>40763.997676810526</v>
+      </c>
+      <c r="V5">
+        <f>'KLEMS VA'!BJ33*'Approximate GST Rates'!V3</f>
+        <v>20294.207960760374</v>
+      </c>
+      <c r="W5">
+        <f>'KLEMS VA'!BK33*'Approximate GST Rates'!W3</f>
+        <v>10979.642748344339</v>
+      </c>
+      <c r="X5">
+        <f>'KLEMS VA'!BL33*'Approximate GST Rates'!X3</f>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f>'KLEMS VA'!BM33*'Approximate GST Rates'!Y3</f>
+        <v>161975.44021971259</v>
+      </c>
+      <c r="Z5">
+        <f>'KLEMS VA'!BN33*'Approximate GST Rates'!Z3</f>
+        <v>234515.77536656265</v>
+      </c>
+      <c r="AA5">
+        <f>'KLEMS VA'!BO33*'Approximate GST Rates'!AA3</f>
+        <v>96869.419306389813</v>
+      </c>
+      <c r="AB5">
+        <f>'KLEMS VA'!BP33*'Approximate GST Rates'!AB3</f>
+        <v>21682.743072998714</v>
+      </c>
+      <c r="AC5">
+        <f>'KLEMS VA'!BQ33*'Approximate GST Rates'!AC3</f>
+        <v>10469.407212936308</v>
+      </c>
+      <c r="AD5">
+        <f>'KLEMS VA'!BR33*'Approximate GST Rates'!AD3</f>
+        <v>35980.025505901409</v>
+      </c>
+      <c r="AE5">
+        <f>'KLEMS VA'!BS33*'Approximate GST Rates'!AE3</f>
+        <v>55645.171334384329</v>
+      </c>
+      <c r="AF5">
+        <f>'KLEMS VA'!BT33*'Approximate GST Rates'!AF3</f>
+        <v>171961.88607575113</v>
+      </c>
+      <c r="AG5">
+        <f>'KLEMS VA'!BU33*'Approximate GST Rates'!AG3</f>
+        <v>150317.5326980954</v>
+      </c>
+      <c r="AH5">
+        <f>'KLEMS VA'!BV33*'Approximate GST Rates'!AH3</f>
+        <v>251494.74553845965</v>
+      </c>
+      <c r="AI5">
+        <f>'KLEMS VA'!BW33*'Approximate GST Rates'!AI3</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <f>'KLEMS VA'!BX33*'Approximate GST Rates'!AJ3</f>
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <f>'KLEMS VA'!BY33*'Approximate GST Rates'!AK3</f>
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <f>'KLEMS VA'!BZ33*'Approximate GST Rates'!AL3</f>
+        <v>38888.211748207104</v>
+      </c>
+      <c r="AM5">
+        <f>'KLEMS VA'!CA33*'Approximate GST Rates'!AM3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="30">
+        <f>SUM(B5:AM5)</f>
+        <v>1575274.7726440621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8">
+        <f>B1/B7</f>
+        <v>0.36917959336317324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B11" t="str">
+        <f>'KLEMS VA'!AP32</f>
+        <v>ISIC 01T03</v>
+      </c>
+      <c r="C11" t="str">
+        <f>'KLEMS VA'!AQ32</f>
+        <v>ISIC 05</v>
+      </c>
+      <c r="D11" t="str">
+        <f>'KLEMS VA'!AR32</f>
+        <v>ISIC 06</v>
+      </c>
+      <c r="E11" t="str">
+        <f>'KLEMS VA'!AS32</f>
+        <v>ISIC 07T08</v>
+      </c>
+      <c r="F11" t="str">
+        <f>'KLEMS VA'!AT32</f>
+        <v>ISIC 09</v>
+      </c>
+      <c r="G11" t="str">
+        <f>'KLEMS VA'!AU32</f>
+        <v>ISIC 10T12</v>
+      </c>
+      <c r="H11" t="str">
+        <f>'KLEMS VA'!AV32</f>
+        <v>ISIC 13T15</v>
+      </c>
+      <c r="I11" t="str">
+        <f>'KLEMS VA'!AW32</f>
+        <v>ISIC 16</v>
+      </c>
+      <c r="J11" t="str">
+        <f>'KLEMS VA'!AX32</f>
+        <v>ISIC 17T18</v>
+      </c>
+      <c r="K11" t="str">
+        <f>'KLEMS VA'!AY32</f>
+        <v>ISIC 19</v>
+      </c>
+      <c r="L11" t="str">
+        <f>'KLEMS VA'!AZ32</f>
+        <v>ISIC 20</v>
+      </c>
+      <c r="M11" t="str">
+        <f>'KLEMS VA'!BA32</f>
+        <v>ISIC 21</v>
+      </c>
+      <c r="N11" t="str">
+        <f>'KLEMS VA'!BB32</f>
+        <v>ISIC 22</v>
+      </c>
+      <c r="O11" t="str">
+        <f>'KLEMS VA'!BC32</f>
+        <v>ISIC 23</v>
+      </c>
+      <c r="P11" t="str">
+        <f>'KLEMS VA'!BD32</f>
+        <v>ISIC 24</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>'KLEMS VA'!BE32</f>
+        <v>ISIC 25</v>
+      </c>
+      <c r="R11" t="str">
+        <f>'KLEMS VA'!BF32</f>
+        <v>ISIC 26</v>
+      </c>
+      <c r="S11" t="str">
+        <f>'KLEMS VA'!BG32</f>
+        <v>ISIC 27</v>
+      </c>
+      <c r="T11" t="str">
+        <f>'KLEMS VA'!BH32</f>
+        <v>ISIC 28</v>
+      </c>
+      <c r="U11" t="str">
+        <f>'KLEMS VA'!BI32</f>
+        <v>ISIC 29</v>
+      </c>
+      <c r="V11" t="str">
+        <f>'KLEMS VA'!BJ32</f>
+        <v>ISIC 30</v>
+      </c>
+      <c r="W11" t="str">
+        <f>'KLEMS VA'!BK32</f>
+        <v>ISIC 31T33</v>
+      </c>
+      <c r="X11" t="str">
+        <f>'KLEMS VA'!BL32</f>
+        <v>ISIC 35T39</v>
+      </c>
+      <c r="Y11" t="str">
+        <f>'KLEMS VA'!BM32</f>
+        <v>ISIC 41T43</v>
+      </c>
+      <c r="Z11" t="str">
+        <f>'KLEMS VA'!BN32</f>
+        <v>ISIC 45T47</v>
+      </c>
+      <c r="AA11" t="str">
+        <f>'KLEMS VA'!BO32</f>
+        <v>ISIC 49T53</v>
+      </c>
+      <c r="AB11" t="str">
+        <f>'KLEMS VA'!BP32</f>
+        <v>ISIC 55T56</v>
+      </c>
+      <c r="AC11" t="str">
+        <f>'KLEMS VA'!BQ32</f>
+        <v>ISIC 58T60</v>
+      </c>
+      <c r="AD11" t="str">
+        <f>'KLEMS VA'!BR32</f>
+        <v>ISIC 61</v>
+      </c>
+      <c r="AE11" t="str">
+        <f>'KLEMS VA'!BS32</f>
+        <v>ISIC 62T63</v>
+      </c>
+      <c r="AF11" t="str">
+        <f>'KLEMS VA'!BT32</f>
+        <v>ISIC 64T66</v>
+      </c>
+      <c r="AG11" t="str">
+        <f>'KLEMS VA'!BU32</f>
+        <v>ISIC 68</v>
+      </c>
+      <c r="AH11" t="str">
+        <f>'KLEMS VA'!BV32</f>
+        <v>ISIC 69T82</v>
+      </c>
+      <c r="AI11" t="str">
+        <f>'KLEMS VA'!BW32</f>
+        <v>ISIC 84</v>
+      </c>
+      <c r="AJ11" t="str">
+        <f>'KLEMS VA'!BX32</f>
+        <v>ISIC 85</v>
+      </c>
+      <c r="AK11" t="str">
+        <f>'KLEMS VA'!BY32</f>
+        <v>ISIC 86T88</v>
+      </c>
+      <c r="AL11" t="str">
+        <f>'KLEMS VA'!BZ32</f>
+        <v>ISIC 90T96</v>
+      </c>
+      <c r="AM11" t="str">
+        <f>'KLEMS VA'!CA32</f>
+        <v>ISIC 97T98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12">
+        <f>B5*$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:AM12" si="0">C5*$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>809.06663948648361</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2717.6518404387966</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>10376.980446158565</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>15986.100816618698</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>2069.1719110315107</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>3222.2632868897022</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>17016.22398781835</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>2927.6650660439054</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1907.7638366012293</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>7918.4494614717541</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>9616.7328277701145</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>9842.7089862732828</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>3445.8666940703656</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>4377.8462595858964</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>8712.7082522337969</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>15049.236086182249</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>7492.2074425811879</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>4053.4600451066767</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>59798.02715513447</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>86578.438587076875</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>35762.212828859716</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="0"/>
+        <v>8004.8262706878268</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="0"/>
+        <v>3865.0914976252993</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="0"/>
+        <v>13283.091185465284</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="0"/>
+        <v>20543.061725852112</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="0"/>
+        <v>63484.819175410121</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="0"/>
+        <v>55494.165596838357</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="0"/>
+        <v>92846.727890863258</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="0"/>
+        <v>14356.734199824075</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="27">
+        <f>B12/'KLEMS VA'!AP33</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="27">
+        <f>C12/'KLEMS VA'!AQ33</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="27">
+        <f>D12/'KLEMS VA'!AR33</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="27">
+        <f>E12/'KLEMS VA'!AS33</f>
+        <v>1.8458979668158664E-2</v>
+      </c>
+      <c r="F13" s="27">
+        <f>F12/'KLEMS VA'!AT33</f>
+        <v>4.4301551203580786E-2</v>
+      </c>
+      <c r="G13" s="27">
+        <f>G12/'KLEMS VA'!AU33</f>
+        <v>3.1380265435869727E-2</v>
+      </c>
+      <c r="H13" s="27">
+        <f>H12/'KLEMS VA'!AV33</f>
+        <v>4.4301551203580793E-2</v>
+      </c>
+      <c r="I13" s="27">
+        <f>I12/'KLEMS VA'!AW33</f>
+        <v>4.4301551203580793E-2</v>
+      </c>
+      <c r="J13" s="27">
+        <f>J12/'KLEMS VA'!AX33</f>
+        <v>4.4301551203580793E-2</v>
+      </c>
+      <c r="K13" s="27">
+        <f>K12/'KLEMS VA'!AY33</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="27">
+        <f>L12/'KLEMS VA'!AZ33</f>
+        <v>6.6452326805371192E-2</v>
+      </c>
+      <c r="M13" s="27">
+        <f>M12/'KLEMS VA'!BA33</f>
+        <v>1.8458979668158664E-2</v>
+      </c>
+      <c r="N13" s="27">
+        <f>N12/'KLEMS VA'!BB33</f>
+        <v>1.8458979668158661E-2</v>
+      </c>
+      <c r="O13" s="27">
+        <f>O12/'KLEMS VA'!BC33</f>
+        <v>4.4301551203580793E-2</v>
+      </c>
+      <c r="P13" s="27">
+        <f>P12/'KLEMS VA'!BD33</f>
+        <v>4.4301551203580786E-2</v>
+      </c>
+      <c r="Q13" s="27">
+        <f>Q12/'KLEMS VA'!BE33</f>
+        <v>6.6452326805371179E-2</v>
+      </c>
+      <c r="R13" s="27">
+        <f>R12/'KLEMS VA'!BF33</f>
+        <v>6.6452326805371179E-2</v>
+      </c>
+      <c r="S13" s="27">
+        <f>S12/'KLEMS VA'!BG33</f>
+        <v>4.4301551203580786E-2</v>
+      </c>
+      <c r="T13" s="27">
+        <f>T12/'KLEMS VA'!BH33</f>
+        <v>4.4301551203580786E-2</v>
+      </c>
+      <c r="U13" s="27">
+        <f>U12/'KLEMS VA'!BI33</f>
+        <v>6.6452326805371179E-2</v>
+      </c>
+      <c r="V13" s="27">
+        <f>V12/'KLEMS VA'!BJ33</f>
+        <v>6.6452326805371192E-2</v>
+      </c>
+      <c r="W13" s="27">
+        <f>W12/'KLEMS VA'!BK33</f>
+        <v>4.4301551203580786E-2</v>
+      </c>
+      <c r="X13" s="27">
+        <f>X12/'KLEMS VA'!BL33</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="27">
+        <f>Y12/'KLEMS VA'!BM33</f>
+        <v>4.4301551203580793E-2</v>
+      </c>
+      <c r="Z13" s="27">
+        <f>Z12/'KLEMS VA'!BN33</f>
+        <v>4.4301551203580786E-2</v>
+      </c>
+      <c r="AA13" s="27">
+        <f>AA12/'KLEMS VA'!BO33</f>
+        <v>4.4301551203580793E-2</v>
+      </c>
+      <c r="AB13" s="27">
+        <f>AB12/'KLEMS VA'!BP33</f>
+        <v>4.4301551203580793E-2</v>
+      </c>
+      <c r="AC13" s="27">
+        <f>AC12/'KLEMS VA'!BQ33</f>
+        <v>6.6452326805371179E-2</v>
+      </c>
+      <c r="AD13" s="27">
+        <f>AD12/'KLEMS VA'!BR33</f>
+        <v>6.6452326805371179E-2</v>
+      </c>
+      <c r="AE13" s="27">
+        <f>AE12/'KLEMS VA'!BS33</f>
+        <v>4.4301551203580793E-2</v>
+      </c>
+      <c r="AF13" s="27">
+        <f>AF12/'KLEMS VA'!BT33</f>
+        <v>6.6452326805371179E-2</v>
+      </c>
+      <c r="AG13" s="27">
+        <f>AG12/'KLEMS VA'!BU33</f>
+        <v>6.6452326805371179E-2</v>
+      </c>
+      <c r="AH13" s="27">
+        <f>AH12/'KLEMS VA'!BV33</f>
+        <v>6.6452326805371179E-2</v>
+      </c>
+      <c r="AI13" s="27">
+        <f>AI12/'KLEMS VA'!BW33</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="27">
+        <f>AJ12/'KLEMS VA'!BX33</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="27">
+        <f>AK12/'KLEMS VA'!BY33</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="27">
+        <f>AL12/'KLEMS VA'!BZ33</f>
+        <v>6.6452326805371192E-2</v>
+      </c>
+      <c r="AM13" s="27">
+        <f>AM12/'KLEMS VA'!CA33</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -7837,10 +9013,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -7953,155 +9129,155 @@
         <v>40</v>
       </c>
       <c r="B2" s="9">
-        <f>Calculations!B6</f>
-        <v>1.4925884629744964E-3</v>
+        <f>'Corporate Taxes'!B4+GST!B13</f>
+        <v>4.551107569199989E-4</v>
       </c>
       <c r="C2" s="9">
-        <f>Calculations!C6</f>
+        <f>'Corporate Taxes'!C4+GST!C13</f>
+        <v>5.593526565219218E-2</v>
+      </c>
+      <c r="D2" s="9">
+        <f>'Corporate Taxes'!D4+GST!D13</f>
+        <v>0.1262807486599779</v>
+      </c>
+      <c r="E2" s="9">
+        <f>'Corporate Taxes'!E4+GST!E13</f>
+        <v>0.17811623057471859</v>
+      </c>
+      <c r="F2" s="9">
+        <f>'Corporate Taxes'!F4+GST!F13</f>
+        <v>4.4301551203580786E-2</v>
+      </c>
+      <c r="G2" s="9">
+        <f>'Corporate Taxes'!G4+GST!G13</f>
+        <v>6.0050578278672301E-2</v>
+      </c>
+      <c r="H2" s="9">
+        <f>'Corporate Taxes'!H4+GST!H13</f>
+        <v>5.6161466684957723E-2</v>
+      </c>
+      <c r="I2" s="9">
+        <f>'Corporate Taxes'!I4+GST!I13</f>
+        <v>0.16770563361314783</v>
+      </c>
+      <c r="J2" s="9">
+        <f>'Corporate Taxes'!J4+GST!J13</f>
+        <v>6.7686514421438998E-2</v>
+      </c>
+      <c r="K2" s="9">
+        <f>'Corporate Taxes'!K4+GST!K13</f>
+        <v>0.1397347927906448</v>
+      </c>
+      <c r="L2" s="9">
+        <f>'Corporate Taxes'!L4+GST!L13</f>
+        <v>0.11399046000801358</v>
+      </c>
+      <c r="M2" s="9">
+        <f>'Corporate Taxes'!M4+GST!M13</f>
+        <v>0.12091274090452887</v>
+      </c>
+      <c r="N2" s="9">
+        <f>'Corporate Taxes'!N4+GST!N13</f>
+        <v>5.0951095843226497E-2</v>
+      </c>
+      <c r="O2" s="9">
+        <f>'Corporate Taxes'!O4+GST!O13</f>
+        <v>6.3921246517373437E-2</v>
+      </c>
+      <c r="P2" s="9">
+        <f>'Corporate Taxes'!P4+GST!P13</f>
+        <v>9.7379987826788972E-2</v>
+      </c>
+      <c r="Q2" s="9">
+        <f>'Corporate Taxes'!Q4+GST!Q13</f>
+        <v>0.18985640921493821</v>
+      </c>
+      <c r="R2" s="9">
+        <f>'Corporate Taxes'!R4+GST!R13</f>
+        <v>9.9354636419035178E-2</v>
+      </c>
+      <c r="S2" s="9">
+        <f>'Corporate Taxes'!S4+GST!S13</f>
+        <v>0.16770563361314783</v>
+      </c>
+      <c r="T2" s="9">
+        <f>'Corporate Taxes'!T4+GST!T13</f>
+        <v>0.16770563361314783</v>
+      </c>
+      <c r="U2" s="9">
+        <f>'Corporate Taxes'!U4+GST!U13</f>
+        <v>9.9622590799401223E-2</v>
+      </c>
+      <c r="V2" s="9">
+        <f>'Corporate Taxes'!V4+GST!V13</f>
+        <v>9.9622590799401223E-2</v>
+      </c>
+      <c r="W2" s="9">
+        <f>'Corporate Taxes'!W4+GST!W13</f>
+        <v>0.16770563361314783</v>
+      </c>
+      <c r="X2" s="9">
+        <f>'Corporate Taxes'!X4+GST!X13</f>
+        <v>3.8379514776179789E-4</v>
+      </c>
+      <c r="Y2" s="9">
+        <f>'Corporate Taxes'!Y4+GST!Y13</f>
+        <v>5.6802187085498772E-2</v>
+      </c>
+      <c r="Z2" s="9">
+        <f>'Corporate Taxes'!Z4+GST!Z13</f>
+        <v>5.7260259824567249E-2</v>
+      </c>
+      <c r="AA2" s="9">
+        <f>'Corporate Taxes'!AA4+GST!AA13</f>
+        <v>5.0943882752661901E-2</v>
+      </c>
+      <c r="AB2" s="9">
+        <f>'Corporate Taxes'!AB4+GST!AB13</f>
+        <v>5.4955129453449936E-2</v>
+      </c>
+      <c r="AC2" s="9">
+        <f>'Corporate Taxes'!AC4+GST!AC13</f>
+        <v>6.6452326805371179E-2</v>
+      </c>
+      <c r="AD2" s="9">
+        <f>'Corporate Taxes'!AD4+GST!AD13</f>
+        <v>9.7507957930944675E-2</v>
+      </c>
+      <c r="AE2" s="9">
+        <f>'Corporate Taxes'!AE4+GST!AE13</f>
+        <v>0.16172989661622766</v>
+      </c>
+      <c r="AF2" s="9">
+        <f>'Corporate Taxes'!AF4+GST!AF13</f>
+        <v>0.17697466308416615</v>
+      </c>
+      <c r="AG2" s="9">
+        <f>'Corporate Taxes'!AG4+GST!AG13</f>
+        <v>7.4453980228034358E-2</v>
+      </c>
+      <c r="AH2" s="9">
+        <f>'Corporate Taxes'!AH4+GST!AH13</f>
+        <v>9.2265918203077807E-2</v>
+      </c>
+      <c r="AI2" s="9">
+        <f>'Corporate Taxes'!AI4+GST!AI13</f>
         <v>0</v>
       </c>
-      <c r="D2" s="9">
-        <f>Calculations!D6</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <f>Calculations!E6</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
-        <f>Calculations!F6</f>
-        <v>3.4729634182103286E-2</v>
-      </c>
-      <c r="G2" s="9">
-        <f>Calculations!G6</f>
-        <v>0.19907066066117929</v>
-      </c>
-      <c r="H2" s="9">
-        <f>Calculations!H6</f>
-        <v>3.6929966699703713E-2</v>
-      </c>
-      <c r="I2" s="9">
-        <f>Calculations!I6</f>
-        <v>0.19204122718915015</v>
-      </c>
-      <c r="J2" s="9">
-        <f>Calculations!J6</f>
-        <v>0.13840461853292474</v>
-      </c>
-      <c r="K2" s="9">
-        <f>Calculations!K6</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="9">
-        <f>Calculations!L6</f>
-        <v>0.1212127368983674</v>
-      </c>
-      <c r="M2" s="9">
-        <f>Calculations!M6</f>
-        <v>0.14304811350040478</v>
-      </c>
-      <c r="N2" s="9">
-        <f>Calculations!N6</f>
-        <v>6.8073269455607058E-2</v>
-      </c>
-      <c r="O2" s="9">
-        <f>Calculations!O6</f>
-        <v>6.0545576484581913E-2</v>
-      </c>
-      <c r="P2" s="9">
-        <f>Calculations!P6</f>
-        <v>0.10757183512383602</v>
-      </c>
-      <c r="Q2" s="9">
-        <f>Calculations!Q6</f>
-        <v>0.21680550145381158</v>
-      </c>
-      <c r="R2" s="9">
-        <f>Calculations!R6</f>
-        <v>0.31687653318451137</v>
-      </c>
-      <c r="S2" s="9">
-        <f>Calculations!S6</f>
-        <v>0.22523022020318573</v>
-      </c>
-      <c r="T2" s="9">
-        <f>Calculations!T6</f>
-        <v>0.40719751771645685</v>
-      </c>
-      <c r="U2" s="9">
-        <f>Calculations!U6</f>
-        <v>0.21175371015125347</v>
-      </c>
-      <c r="V2" s="9">
-        <f>Calculations!V6</f>
-        <v>0.14643323436213154</v>
-      </c>
-      <c r="W2" s="9">
-        <f>Calculations!W6</f>
-        <v>0.30266786937038281</v>
-      </c>
-      <c r="X2" s="9">
-        <f>Calculations!X6</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="9">
-        <f>Calculations!Y6</f>
-        <v>2.6405764552709304E-2</v>
-      </c>
-      <c r="Z2" s="9">
-        <f>Calculations!Z6</f>
-        <v>1.256402492887552E-2</v>
-      </c>
-      <c r="AA2" s="9">
-        <f>Calculations!AA6</f>
-        <v>6.4669464609527199E-3</v>
-      </c>
-      <c r="AB2" s="9">
-        <f>Calculations!AB6</f>
-        <v>2.3899223519468164E-2</v>
-      </c>
-      <c r="AC2" s="9">
-        <f>Calculations!AC6</f>
-        <v>8.8427650641541608E-2</v>
-      </c>
-      <c r="AD2" s="9">
-        <f>Calculations!AD6</f>
-        <v>9.3679114054127776E-3</v>
-      </c>
-      <c r="AE2" s="9">
-        <f>Calculations!AE6</f>
-        <v>0.14005713903516107</v>
-      </c>
-      <c r="AF2" s="9">
-        <f>Calculations!AF6</f>
-        <v>0.15816475282435702</v>
-      </c>
-      <c r="AG2" s="9">
-        <f>Calculations!AG6</f>
-        <v>1.193140703776244E-4</v>
-      </c>
-      <c r="AH2" s="9">
-        <f>Calculations!AH6</f>
-        <v>5.0033592352838815E-2</v>
-      </c>
-      <c r="AI2" s="9">
-        <f>Calculations!AI6</f>
-        <v>0</v>
-      </c>
       <c r="AJ2" s="9">
-        <f>Calculations!AJ6</f>
-        <v>0</v>
+        <f>'Corporate Taxes'!AJ4+GST!AJ13</f>
+        <v>1.0408780643824105E-3</v>
       </c>
       <c r="AK2" s="9">
-        <f>Calculations!AK6</f>
-        <v>4.6364532735410583E-3</v>
+        <f>'Corporate Taxes'!AK4+GST!AK13</f>
+        <v>8.1104834345487389E-3</v>
       </c>
       <c r="AL2" s="9">
-        <f>Calculations!AL6</f>
-        <v>1.321909933077043E-2</v>
+        <f>'Corporate Taxes'!AL4+GST!AL13</f>
+        <v>8.3309183177282475E-2</v>
       </c>
       <c r="AM2" s="9">
-        <f>Calculations!AM6</f>
+        <f>'Corporate Taxes'!AM4+GST!AM13</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
+++ b/InputData/io-model/DToPaSoVAbIC/Domestic Taxes on Prod as Shr of Val Added by ISIC Code.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\io-model\DToPaSoVAbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39529954-3602-4AD0-968E-E6259D93B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA2AFE0-EA8E-4BD3-9BD9-AC9167D8EE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BVAbIC" sheetId="21" r:id="rId2"/>
     <sheet name="KLEMS VA" sheetId="22" r:id="rId3"/>
     <sheet name="Corporate Taxes" sheetId="23" r:id="rId4"/>
-    <sheet name="Approximate GST Rates" sheetId="26" r:id="rId5"/>
-    <sheet name="GST" sheetId="25" r:id="rId6"/>
-    <sheet name="DToPaSoVAbIC" sheetId="2" r:id="rId7"/>
+    <sheet name="DToPaSoVAbIC" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="CAP_CT" localSheetId="4">#REF!</definedName>
     <definedName name="CAP_CT">#REF!</definedName>
-    <definedName name="CAP_GFCF" localSheetId="4">#REF!</definedName>
     <definedName name="CAP_GFCF">#REF!</definedName>
     <definedName name="CAP_IT">#REF!</definedName>
     <definedName name="CAP_OCon">#REF!</definedName>
@@ -63,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="255">
   <si>
     <t>Source:</t>
   </si>
@@ -563,144 +559,6 @@
     <t>each of those components to the ISIC codes used in the EPS.</t>
   </si>
   <si>
-    <t>D01T03: Agriculture, forestry and fishing</t>
-  </si>
-  <si>
-    <t>D05: Coal mining</t>
-  </si>
-  <si>
-    <t>D06: Oil and gas extraction</t>
-  </si>
-  <si>
-    <t>D07T08: Mining and quarrying of uranium and non-energy-producing products</t>
-  </si>
-  <si>
-    <t>D09: Mining support service activities</t>
-  </si>
-  <si>
-    <t>D10T12: Food products, beverages and tobacco</t>
-  </si>
-  <si>
-    <t>D13T15: Textiles, wearing apparel, leather and related products</t>
-  </si>
-  <si>
-    <t>D16: Wood and products of wood and cork</t>
-  </si>
-  <si>
-    <t>D17T18: Paper products and printing</t>
-  </si>
-  <si>
-    <t>D19: Coke and refined petroleum products</t>
-  </si>
-  <si>
-    <t>D20: Chemicals</t>
-  </si>
-  <si>
-    <t>D21: Pharmaceuticals</t>
-  </si>
-  <si>
-    <t>D22: Rubber and plastic products</t>
-  </si>
-  <si>
-    <t>D239: Cement and other nometallic minerals</t>
-  </si>
-  <si>
-    <t>D24: Metals</t>
-  </si>
-  <si>
-    <t>D25: Fabricated metal products</t>
-  </si>
-  <si>
-    <t>D26: Computer, electronic and optical products</t>
-  </si>
-  <si>
-    <t>D27: Electrical equipment</t>
-  </si>
-  <si>
-    <t>D28: Machinery and equipment, nec</t>
-  </si>
-  <si>
-    <t>D29: Motor vehicles, trailers and semi-trailers</t>
-  </si>
-  <si>
-    <t>D30: Other transport equipment</t>
-  </si>
-  <si>
-    <t>D31T33: Other manufacturing; repair and installation of machinery and equipment</t>
-  </si>
-  <si>
-    <t>D351: Electricity generation and distribution, energy pipelines and gas processing, and water and wate</t>
-  </si>
-  <si>
-    <t>D41T43: Construction</t>
-  </si>
-  <si>
-    <t>D45T47: Wholesale and retail trade; repair of motor vehicles</t>
-  </si>
-  <si>
-    <t>D49T53: Transportation and storage</t>
-  </si>
-  <si>
-    <t>D55T56: Accomodation and food services</t>
-  </si>
-  <si>
-    <t>D58T60: Publishing, audiovisual and broadcasting activities</t>
-  </si>
-  <si>
-    <t>D61: Telecommunications</t>
-  </si>
-  <si>
-    <t>D62T63: IT and other information services</t>
-  </si>
-  <si>
-    <t>D64T66: Financial and insurance activities</t>
-  </si>
-  <si>
-    <t>D68: Real estate activities</t>
-  </si>
-  <si>
-    <t>D69T82: Other business sector services</t>
-  </si>
-  <si>
-    <t>D84: Public admin. and defence; compulsory social security</t>
-  </si>
-  <si>
-    <t>D85: Education</t>
-  </si>
-  <si>
-    <t>D86T88: Human health and social work</t>
-  </si>
-  <si>
-    <t>D90T96: Arts, entertainment, recreation and other service activities</t>
-  </si>
-  <si>
-    <t>D97T98: Private households with employed persons</t>
-  </si>
-  <si>
-    <t>Tax Rate</t>
-  </si>
-  <si>
-    <t>Total GST Revenue (2018-2019)</t>
-  </si>
-  <si>
-    <t>Approximate Tax Rates Applied to KLEMS Value Add Figures (2018-2019)</t>
-  </si>
-  <si>
-    <t>Tax Collected</t>
-  </si>
-  <si>
-    <t>Total Tax Collected Using Approximate Tax Rates</t>
-  </si>
-  <si>
-    <t>Ratio of Actual GST Revenue to Revenue with Approximate Tax Rates</t>
-  </si>
-  <si>
-    <t>GST Tax Rates Adjusted to Match Total Collected 2018-2019 Revenue</t>
-  </si>
-  <si>
-    <t>*average of 5% and 12% rates</t>
-  </si>
-  <si>
     <t>Approximate Tax Rates</t>
   </si>
   <si>
@@ -962,19 +820,10 @@
     <t>We compile industry specific tax rates using reported total corporate tax collection as a share of value add, mapping</t>
   </si>
   <si>
-    <t>by estimating the average tax rate paid by ISIC code based on applicable GST rates by product and the types</t>
-  </si>
-  <si>
-    <t>of products or services contained within each ISIC code, then scaling those rates so that we produce the</t>
-  </si>
-  <si>
-    <t>correct GST revenue for the 2018-2019 FY.</t>
-  </si>
-  <si>
-    <t>We then approximate the tax rates paid by each industry</t>
-  </si>
-  <si>
-    <t>The reported tax rates are the sum of corporate and GST taxes.</t>
+    <t>We do not capture India's GST in this file, meaning that the policy-induced changes in GST revenue will</t>
+  </si>
+  <si>
+    <t>be excluded from the India EPS.</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1013,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1209,12 +1058,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -1503,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1598,12 +1442,12 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1613,12 +1457,12 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1641,7 +1485,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1649,29 +1493,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>302</v>
-      </c>
-    </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>299</v>
+      <c r="A32" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>303</v>
+      <c r="A33" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6484,7 +6313,7 @@
         <f>$B$40/SUM(I2,Q2,S2,W2,T2)</f>
         <v>0.12340408240956703</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="30">
         <f t="shared" si="1"/>
         <v>2.3384963217858205E-2</v>
       </c>
@@ -6623,1048 +6452,902 @@
       <c r="J8"/>
     </row>
     <row r="9" spans="1:39" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="31">
+      <c r="A9" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9">
         <v>319.41000000000003</v>
       </c>
-      <c r="C9" s="31"/>
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="31"/>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:39" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="31">
+      <c r="A10" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10">
         <v>343.64</v>
       </c>
-      <c r="C10" s="31"/>
       <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="31"/>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:39" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="31">
+      <c r="A11" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11">
         <v>183.95</v>
       </c>
-      <c r="C11" s="31"/>
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="31"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:39" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="31">
+      <c r="A12" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12">
         <v>442.67</v>
       </c>
-      <c r="C12" s="31"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="31"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="31">
+      <c r="A13" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13">
         <v>16.59</v>
       </c>
-      <c r="C13" s="31"/>
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="31"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:39" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B14" s="31">
+      <c r="A14" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14">
         <v>5.18</v>
       </c>
-      <c r="C14" s="31"/>
       <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="31"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="B15" s="31">
+      <c r="A15" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15">
         <v>61.3</v>
       </c>
-      <c r="C15" s="31"/>
       <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="31"/>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:39" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B16" s="31">
+      <c r="A16" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16">
         <v>13369.23</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31" t="s">
+      <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="31"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" s="31">
+      <c r="A17" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17">
         <v>9292.34</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31" t="s">
+      <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="31"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B18" s="31">
+      <c r="A18" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18">
         <v>2360.77</v>
       </c>
-      <c r="C18" s="31"/>
       <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="31"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="31">
+      <c r="A19" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19">
         <v>2060.15</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31" t="s">
+      <c r="D19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="31"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="B20" s="31">
+      <c r="A20" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20">
         <v>2576.94</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31" t="s">
+      <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="31"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="31">
+      <c r="A21" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21">
         <v>21568.27</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31" t="s">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="31"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" s="31">
+      <c r="A22" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22">
         <v>16249.56</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31" t="s">
+      <c r="D22" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="31"/>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="B23" s="31">
+      <c r="A23" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23">
         <v>12021.07</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31" t="s">
+      <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="31"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B24" s="31">
+      <c r="A24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24">
         <v>9723.18</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="31" t="s">
         <v>18</v>
       </c>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="31">
+      <c r="A25" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25">
         <v>11521.97</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31" t="s">
+      <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="31"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B26" s="31">
+      <c r="A26" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26">
         <v>7941.02</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31" t="s">
+      <c r="D26" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="31"/>
       <c r="J26"/>
     </row>
     <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="31">
+      <c r="A27" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27">
         <v>6143.59</v>
       </c>
-      <c r="C27" s="31"/>
       <c r="D27" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="31"/>
       <c r="J27"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="31">
+      <c r="A28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28">
         <v>4279.62</v>
       </c>
-      <c r="C28" s="31"/>
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="31"/>
       <c r="J28"/>
     </row>
     <row r="29" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="31">
+      <c r="A29" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29">
         <v>3793.39</v>
       </c>
-      <c r="C29" s="31"/>
       <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="31"/>
       <c r="J29"/>
     </row>
     <row r="30" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" s="31">
+      <c r="A30" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30">
         <v>3506.82</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31" t="s">
+      <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="31"/>
       <c r="J30"/>
     </row>
     <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31" s="31">
+      <c r="A31" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31">
         <v>3337.25</v>
       </c>
-      <c r="C31" s="31"/>
       <c r="D31" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="31"/>
       <c r="J31"/>
     </row>
     <row r="32" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" s="31">
+      <c r="A32" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32">
         <v>1706.14</v>
       </c>
-      <c r="C32" s="31"/>
       <c r="D32" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="31"/>
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B33" s="31">
+      <c r="A33" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33">
         <v>484.53</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31" t="s">
+      <c r="D33" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="31"/>
       <c r="J33"/>
     </row>
     <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="B34" s="31">
+      <c r="A34" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34">
         <v>1958.45</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31" t="s">
+      <c r="D34" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="31"/>
       <c r="J34"/>
     </row>
     <row r="35" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="B35" s="31">
+      <c r="A35" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35">
         <v>2063.5</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31" t="s">
+      <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="31"/>
       <c r="J35"/>
     </row>
     <row r="36" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="B36" s="31">
+      <c r="A36" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36">
         <v>1788.93</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31" t="s">
+      <c r="D36" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="31"/>
       <c r="J36"/>
     </row>
     <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B37" s="31">
+      <c r="A37" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37">
         <v>1294.6099999999999</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31" t="s">
+      <c r="D37" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="31"/>
       <c r="J37"/>
     </row>
     <row r="38" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="B38" s="31">
+      <c r="A38" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38">
         <v>1700.9</v>
       </c>
-      <c r="C38" s="31"/>
       <c r="D38" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="31"/>
       <c r="J38"/>
     </row>
     <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="B39" s="31">
+      <c r="A39" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39">
         <v>1528.58</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="31" t="s">
         <v>18</v>
       </c>
       <c r="J39"/>
     </row>
     <row r="40" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="B40" s="31">
+      <c r="A40" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40">
         <v>71797.47</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="31"/>
+      <c r="D40" s="31"/>
       <c r="J40"/>
     </row>
     <row r="41" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="B41" s="31">
+      <c r="A41" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41">
         <v>10370.07</v>
       </c>
-      <c r="C41" s="31"/>
       <c r="D41" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="31"/>
       <c r="J41"/>
     </row>
     <row r="42" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="B42" s="31">
+      <c r="A42" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42">
         <v>2999.79</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31" t="s">
+      <c r="D42" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="31"/>
       <c r="J42"/>
     </row>
     <row r="43" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="B43" s="31">
+      <c r="A43" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43">
         <v>15.37</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31" t="s">
+      <c r="D43" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="31"/>
       <c r="J43"/>
     </row>
     <row r="44" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="B44" s="31">
+      <c r="A44" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44">
         <v>157.58000000000001</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31" t="s">
+      <c r="D44" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="31"/>
       <c r="J44"/>
     </row>
     <row r="45" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A45" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="B45" s="31">
+      <c r="A45" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45">
         <v>6614.91</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31" t="s">
+      <c r="D45" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="31"/>
       <c r="J45"/>
     </row>
     <row r="46" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="B46" s="31">
+      <c r="A46" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46">
         <v>3515.92</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31" t="s">
+      <c r="D46" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="31"/>
       <c r="J46"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="B47" s="31">
+      <c r="A47" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47">
         <v>6742.47</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31" t="s">
+      <c r="D47" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="31"/>
       <c r="J47"/>
     </row>
     <row r="48" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="B48" s="31">
+      <c r="A48" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48">
         <v>1464.42</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31" t="s">
+      <c r="D48" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="31"/>
       <c r="J48"/>
     </row>
     <row r="49" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="B49" s="31">
+      <c r="A49" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49">
         <v>1359.58</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31" t="s">
+      <c r="D49" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="31"/>
       <c r="J49"/>
     </row>
     <row r="50" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="B50" s="31">
+      <c r="A50" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50">
         <v>550.49</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31" t="s">
+      <c r="D50" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="31"/>
       <c r="J50"/>
     </row>
     <row r="51" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="B51" s="31">
+      <c r="A51" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51">
         <v>401.63</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31" t="s">
+      <c r="D51" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="31"/>
       <c r="J51"/>
     </row>
     <row r="52" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="B52" s="31">
+      <c r="A52" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52">
         <v>2906.04</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31" t="s">
+      <c r="D52" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="31"/>
       <c r="J52"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="B53" s="31">
+      <c r="A53" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53">
         <v>289.60000000000002</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31" t="s">
+      <c r="D53" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="31"/>
       <c r="J53"/>
     </row>
     <row r="54" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="B54" s="31">
+      <c r="A54" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54">
         <v>3285.67</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31" t="s">
+      <c r="D54" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="31"/>
       <c r="J54"/>
     </row>
     <row r="55" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="B55" s="31">
+      <c r="A55" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55">
         <v>1003.2</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31" t="s">
+      <c r="D55" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="31"/>
       <c r="J55"/>
     </row>
     <row r="56" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="B56" s="31">
+      <c r="A56" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56">
         <v>1175.3499999999999</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31" t="s">
+      <c r="D56" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="31"/>
       <c r="J56"/>
     </row>
     <row r="57" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="B57" s="31">
+      <c r="A57" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57">
         <v>759.47</v>
       </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31" t="s">
+      <c r="D57" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="31"/>
       <c r="J57"/>
     </row>
     <row r="58" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="B58" s="31">
+      <c r="A58" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58">
         <v>623.25</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31" t="s">
+      <c r="D58" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="31"/>
       <c r="J58"/>
     </row>
     <row r="59" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="B59" s="31">
+      <c r="A59" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59">
         <v>18478.240000000002</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31" t="s">
+      <c r="D59" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="31"/>
       <c r="J59"/>
     </row>
     <row r="60" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="B60" s="31">
+      <c r="A60" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60">
         <v>1924.99</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31" t="s">
+      <c r="D60" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="31"/>
       <c r="J60"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="B61" s="31">
+      <c r="A61" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61">
         <v>193.61</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31" t="s">
+      <c r="D61" t="s">
         <v>23</v>
       </c>
-      <c r="E61" s="31"/>
       <c r="J61"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="B62" s="31">
+      <c r="A62" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62">
         <v>816.79</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31" t="s">
+      <c r="D62" t="s">
         <v>23</v>
       </c>
-      <c r="E62" s="31"/>
       <c r="J62"/>
     </row>
     <row r="63" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="B63" s="31">
+      <c r="A63" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63">
         <v>4351.59</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31" t="s">
+      <c r="D63" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="31"/>
       <c r="J63"/>
     </row>
     <row r="64" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="B64" s="31">
+      <c r="A64" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64">
         <v>6207.68</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31" t="s">
+      <c r="D64" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="31"/>
       <c r="J64"/>
     </row>
     <row r="65" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="B65" s="31">
+      <c r="A65" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65">
         <v>38773.71</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31" t="s">
+      <c r="D65" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="31"/>
       <c r="J65"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="B66" s="31">
+      <c r="A66" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66">
         <v>9469.0499999999993</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31" t="s">
+      <c r="D66" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="31"/>
       <c r="J66"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="B67" s="31">
+      <c r="A67" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67">
         <v>7026.33</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31" t="s">
+      <c r="D67" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="31"/>
       <c r="J67"/>
     </row>
     <row r="68" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="B68" s="31">
+      <c r="A68" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68">
         <v>50317.74</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31" t="s">
+      <c r="D68" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="31"/>
       <c r="J68"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="B69" s="31">
+      <c r="A69" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69">
         <v>37416.19</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31" t="s">
+      <c r="D69" t="s">
         <v>27</v>
       </c>
-      <c r="E69" s="31"/>
       <c r="J69"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="B70" s="31">
+      <c r="A70" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70">
         <v>15381.53</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31" t="s">
+      <c r="D70" t="s">
         <v>27</v>
       </c>
-      <c r="E70" s="31"/>
       <c r="J70"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="B71" s="31">
+      <c r="A71" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71">
         <v>2005.41</v>
       </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31" t="s">
+      <c r="D71" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="31"/>
       <c r="J71"/>
     </row>
     <row r="72" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="B72" s="31">
+      <c r="A72" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72">
         <v>1654.95</v>
       </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31" t="s">
+      <c r="D72" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="31"/>
       <c r="J72"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="B73" s="31">
+      <c r="A73" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73">
         <v>352.3</v>
       </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31" t="s">
+      <c r="D73" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="31"/>
       <c r="J73"/>
     </row>
     <row r="74" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="B74" s="31">
+      <c r="A74" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74">
         <v>1751.49</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31" t="s">
+      <c r="D74" t="s">
         <v>30</v>
       </c>
-      <c r="E74" s="31"/>
       <c r="J74"/>
     </row>
     <row r="75" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="B75" s="31">
+      <c r="A75" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75">
         <v>82.87</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31" t="s">
+      <c r="D75" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="31"/>
       <c r="J75"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="B76" s="31">
+      <c r="A76" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76">
         <v>518.72</v>
       </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31" t="s">
+      <c r="D76" t="s">
         <v>30</v>
       </c>
-      <c r="E76" s="31"/>
       <c r="J76"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="B77" s="31">
+      <c r="A77" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77">
         <v>63.79</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31" t="s">
+      <c r="D77" t="s">
         <v>30</v>
       </c>
-      <c r="E77" s="31"/>
       <c r="J77"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="B78" s="31">
+      <c r="A78" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78">
         <v>1292.93</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31" t="s">
+      <c r="D78" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="31"/>
       <c r="J78"/>
     </row>
     <row r="79" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="B79" s="31">
+      <c r="A79" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79">
         <v>208.3</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31" t="s">
+      <c r="D79" t="s">
         <v>32</v>
       </c>
-      <c r="E79" s="31"/>
       <c r="J79"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="B80" s="31">
+      <c r="A80" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80">
         <v>61.54</v>
       </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31" t="s">
+      <c r="D80" t="s">
         <v>32</v>
       </c>
-      <c r="E80" s="31"/>
       <c r="J80"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B81" s="31">
+      <c r="A81" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81">
         <v>506.7</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31" t="s">
+      <c r="D81" t="s">
         <v>32</v>
       </c>
-      <c r="E81" s="31"/>
       <c r="J81"/>
     </row>
     <row r="82" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="B82" s="31">
+      <c r="A82" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82">
         <v>907.83</v>
       </c>
-      <c r="C82" s="31"/>
       <c r="D82" t="s">
         <v>33</v>
       </c>
-      <c r="E82" s="31"/>
       <c r="J82"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="B83" s="31">
+      <c r="A83" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83">
         <v>407.18</v>
       </c>
       <c r="D83" t="s">
@@ -7673,10 +7356,10 @@
       <c r="J83"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="B84" s="31">
+      <c r="A84" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B84">
         <v>386.39</v>
       </c>
       <c r="D84" t="s">
@@ -7685,10 +7368,10 @@
       <c r="J84"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B85" s="31">
+      <c r="A85" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85">
         <v>211.57</v>
       </c>
       <c r="D85" t="s">
@@ -7697,10 +7380,10 @@
       <c r="J85"/>
     </row>
     <row r="86" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A86" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="B86" s="31">
+      <c r="A86" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B86">
         <v>352.93</v>
       </c>
       <c r="D86" t="s">
@@ -7709,10 +7392,10 @@
       <c r="J86"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="B87" s="31">
+      <c r="A87" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87">
         <v>31.06</v>
       </c>
       <c r="D87" t="s">
@@ -7721,10 +7404,10 @@
       <c r="J87"/>
     </row>
     <row r="88" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="B88" s="31">
+      <c r="A88" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88">
         <v>2286.67</v>
       </c>
       <c r="D88" t="s">
@@ -7733,10 +7416,10 @@
       <c r="J88"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="B89" s="31">
+      <c r="A89" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89">
         <v>345.05</v>
       </c>
       <c r="D89" t="s">
@@ -7745,10 +7428,10 @@
       <c r="J89"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="B90" s="31">
+      <c r="A90" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90">
         <v>1010.13</v>
       </c>
       <c r="D90" t="s">
@@ -7757,10 +7440,10 @@
       <c r="J90"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B91" s="31">
+      <c r="B91">
         <v>29709.46</v>
       </c>
       <c r="D91" t="s">
@@ -7775,1220 +7458,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBF2198-ACE7-443B-806D-39BB8F4197D4}">
-  <dimension ref="A1:AQ4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" s="3" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="G3" s="9">
-        <f>AVERAGE(0.05,0.12)</f>
-        <v>8.4999999999999992E-2</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="R3" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="S3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="T3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="U3" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="V3" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="W3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="X3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="AA3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="AB3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="AC3" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="AD3" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="AE3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="AF3" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="AG3" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="AH3" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="AI3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="AM3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="G4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EB9AFD-4B07-436F-AB69-CEECFB40FA55}">
-  <dimension ref="A1:AM13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="30">
-        <v>581559.30000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B4" t="str">
-        <f>'KLEMS VA'!AP32</f>
-        <v>ISIC 01T03</v>
-      </c>
-      <c r="C4" t="str">
-        <f>'KLEMS VA'!AQ32</f>
-        <v>ISIC 05</v>
-      </c>
-      <c r="D4" t="str">
-        <f>'KLEMS VA'!AR32</f>
-        <v>ISIC 06</v>
-      </c>
-      <c r="E4" t="str">
-        <f>'KLEMS VA'!AS32</f>
-        <v>ISIC 07T08</v>
-      </c>
-      <c r="F4" t="str">
-        <f>'KLEMS VA'!AT32</f>
-        <v>ISIC 09</v>
-      </c>
-      <c r="G4" t="str">
-        <f>'KLEMS VA'!AU32</f>
-        <v>ISIC 10T12</v>
-      </c>
-      <c r="H4" t="str">
-        <f>'KLEMS VA'!AV32</f>
-        <v>ISIC 13T15</v>
-      </c>
-      <c r="I4" t="str">
-        <f>'KLEMS VA'!AW32</f>
-        <v>ISIC 16</v>
-      </c>
-      <c r="J4" t="str">
-        <f>'KLEMS VA'!AX32</f>
-        <v>ISIC 17T18</v>
-      </c>
-      <c r="K4" t="str">
-        <f>'KLEMS VA'!AY32</f>
-        <v>ISIC 19</v>
-      </c>
-      <c r="L4" t="str">
-        <f>'KLEMS VA'!AZ32</f>
-        <v>ISIC 20</v>
-      </c>
-      <c r="M4" t="str">
-        <f>'KLEMS VA'!BA32</f>
-        <v>ISIC 21</v>
-      </c>
-      <c r="N4" t="str">
-        <f>'KLEMS VA'!BB32</f>
-        <v>ISIC 22</v>
-      </c>
-      <c r="O4" t="str">
-        <f>'KLEMS VA'!BC32</f>
-        <v>ISIC 23</v>
-      </c>
-      <c r="P4" t="str">
-        <f>'KLEMS VA'!BD32</f>
-        <v>ISIC 24</v>
-      </c>
-      <c r="Q4" t="str">
-        <f>'KLEMS VA'!BE32</f>
-        <v>ISIC 25</v>
-      </c>
-      <c r="R4" t="str">
-        <f>'KLEMS VA'!BF32</f>
-        <v>ISIC 26</v>
-      </c>
-      <c r="S4" t="str">
-        <f>'KLEMS VA'!BG32</f>
-        <v>ISIC 27</v>
-      </c>
-      <c r="T4" t="str">
-        <f>'KLEMS VA'!BH32</f>
-        <v>ISIC 28</v>
-      </c>
-      <c r="U4" t="str">
-        <f>'KLEMS VA'!BI32</f>
-        <v>ISIC 29</v>
-      </c>
-      <c r="V4" t="str">
-        <f>'KLEMS VA'!BJ32</f>
-        <v>ISIC 30</v>
-      </c>
-      <c r="W4" t="str">
-        <f>'KLEMS VA'!BK32</f>
-        <v>ISIC 31T33</v>
-      </c>
-      <c r="X4" t="str">
-        <f>'KLEMS VA'!BL32</f>
-        <v>ISIC 35T39</v>
-      </c>
-      <c r="Y4" t="str">
-        <f>'KLEMS VA'!BM32</f>
-        <v>ISIC 41T43</v>
-      </c>
-      <c r="Z4" t="str">
-        <f>'KLEMS VA'!BN32</f>
-        <v>ISIC 45T47</v>
-      </c>
-      <c r="AA4" t="str">
-        <f>'KLEMS VA'!BO32</f>
-        <v>ISIC 49T53</v>
-      </c>
-      <c r="AB4" t="str">
-        <f>'KLEMS VA'!BP32</f>
-        <v>ISIC 55T56</v>
-      </c>
-      <c r="AC4" t="str">
-        <f>'KLEMS VA'!BQ32</f>
-        <v>ISIC 58T60</v>
-      </c>
-      <c r="AD4" t="str">
-        <f>'KLEMS VA'!BR32</f>
-        <v>ISIC 61</v>
-      </c>
-      <c r="AE4" t="str">
-        <f>'KLEMS VA'!BS32</f>
-        <v>ISIC 62T63</v>
-      </c>
-      <c r="AF4" t="str">
-        <f>'KLEMS VA'!BT32</f>
-        <v>ISIC 64T66</v>
-      </c>
-      <c r="AG4" t="str">
-        <f>'KLEMS VA'!BU32</f>
-        <v>ISIC 68</v>
-      </c>
-      <c r="AH4" t="str">
-        <f>'KLEMS VA'!BV32</f>
-        <v>ISIC 69T82</v>
-      </c>
-      <c r="AI4" t="str">
-        <f>'KLEMS VA'!BW32</f>
-        <v>ISIC 84</v>
-      </c>
-      <c r="AJ4" t="str">
-        <f>'KLEMS VA'!BX32</f>
-        <v>ISIC 85</v>
-      </c>
-      <c r="AK4" t="str">
-        <f>'KLEMS VA'!BY32</f>
-        <v>ISIC 86T88</v>
-      </c>
-      <c r="AL4" t="str">
-        <f>'KLEMS VA'!BZ32</f>
-        <v>ISIC 90T96</v>
-      </c>
-      <c r="AM4" t="str">
-        <f>'KLEMS VA'!CA32</f>
-        <v>ISIC 97T98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5">
-        <f>'KLEMS VA'!AP33*'Approximate GST Rates'!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f>'KLEMS VA'!AQ33*'Approximate GST Rates'!C3</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>'KLEMS VA'!AR33*'Approximate GST Rates'!D3</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>'KLEMS VA'!AS33*'Approximate GST Rates'!E3</f>
-        <v>2191.5258969652205</v>
-      </c>
-      <c r="F5">
-        <f>'KLEMS VA'!AT33*'Approximate GST Rates'!F3</f>
-        <v>7361.3273574559671</v>
-      </c>
-      <c r="G5">
-        <f>'KLEMS VA'!AU33*'Approximate GST Rates'!G3</f>
-        <v>28108.217877444844</v>
-      </c>
-      <c r="H5">
-        <f>'KLEMS VA'!AV33*'Approximate GST Rates'!H3</f>
-        <v>43301.69138274304</v>
-      </c>
-      <c r="I5">
-        <f>'KLEMS VA'!AW33*'Approximate GST Rates'!I3</f>
-        <v>5604.7840894499359</v>
-      </c>
-      <c r="J5">
-        <f>'KLEMS VA'!AX33*'Approximate GST Rates'!J3</f>
-        <v>8728.1728048274417</v>
-      </c>
-      <c r="K5">
-        <f>'KLEMS VA'!AY33*'Approximate GST Rates'!K3</f>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f>'KLEMS VA'!AZ33*'Approximate GST Rates'!L3</f>
-        <v>46091.995044479532</v>
-      </c>
-      <c r="M5">
-        <f>'KLEMS VA'!BA33*'Approximate GST Rates'!M3</f>
-        <v>7930.1920221897853</v>
-      </c>
-      <c r="N5">
-        <f>'KLEMS VA'!BB33*'Approximate GST Rates'!N3</f>
-        <v>5167.5766236746022</v>
-      </c>
-      <c r="O5">
-        <f>'KLEMS VA'!BC33*'Approximate GST Rates'!O3</f>
-        <v>21448.773452876452</v>
-      </c>
-      <c r="P5">
-        <f>'KLEMS VA'!BD33*'Approximate GST Rates'!P3</f>
-        <v>26048.928490773436</v>
-      </c>
-      <c r="Q5">
-        <f>'KLEMS VA'!BE33*'Approximate GST Rates'!Q3</f>
-        <v>26661.03209174595</v>
-      </c>
-      <c r="R5">
-        <f>'KLEMS VA'!BF33*'Approximate GST Rates'!R3</f>
-        <v>9333.849313498109</v>
-      </c>
-      <c r="S5">
-        <f>'KLEMS VA'!BG33*'Approximate GST Rates'!S3</f>
-        <v>11858.310530396178</v>
-      </c>
-      <c r="T5">
-        <f>'KLEMS VA'!BH33*'Approximate GST Rates'!T3</f>
-        <v>23600.189200227109</v>
-      </c>
-      <c r="U5">
-        <f>'KLEMS VA'!BI33*'Approximate GST Rates'!U3</f>
-        <v>40763.997676810526</v>
-      </c>
-      <c r="V5">
-        <f>'KLEMS VA'!BJ33*'Approximate GST Rates'!V3</f>
-        <v>20294.207960760374</v>
-      </c>
-      <c r="W5">
-        <f>'KLEMS VA'!BK33*'Approximate GST Rates'!W3</f>
-        <v>10979.642748344339</v>
-      </c>
-      <c r="X5">
-        <f>'KLEMS VA'!BL33*'Approximate GST Rates'!X3</f>
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <f>'KLEMS VA'!BM33*'Approximate GST Rates'!Y3</f>
-        <v>161975.44021971259</v>
-      </c>
-      <c r="Z5">
-        <f>'KLEMS VA'!BN33*'Approximate GST Rates'!Z3</f>
-        <v>234515.77536656265</v>
-      </c>
-      <c r="AA5">
-        <f>'KLEMS VA'!BO33*'Approximate GST Rates'!AA3</f>
-        <v>96869.419306389813</v>
-      </c>
-      <c r="AB5">
-        <f>'KLEMS VA'!BP33*'Approximate GST Rates'!AB3</f>
-        <v>21682.743072998714</v>
-      </c>
-      <c r="AC5">
-        <f>'KLEMS VA'!BQ33*'Approximate GST Rates'!AC3</f>
-        <v>10469.407212936308</v>
-      </c>
-      <c r="AD5">
-        <f>'KLEMS VA'!BR33*'Approximate GST Rates'!AD3</f>
-        <v>35980.025505901409</v>
-      </c>
-      <c r="AE5">
-        <f>'KLEMS VA'!BS33*'Approximate GST Rates'!AE3</f>
-        <v>55645.171334384329</v>
-      </c>
-      <c r="AF5">
-        <f>'KLEMS VA'!BT33*'Approximate GST Rates'!AF3</f>
-        <v>171961.88607575113</v>
-      </c>
-      <c r="AG5">
-        <f>'KLEMS VA'!BU33*'Approximate GST Rates'!AG3</f>
-        <v>150317.5326980954</v>
-      </c>
-      <c r="AH5">
-        <f>'KLEMS VA'!BV33*'Approximate GST Rates'!AH3</f>
-        <v>251494.74553845965</v>
-      </c>
-      <c r="AI5">
-        <f>'KLEMS VA'!BW33*'Approximate GST Rates'!AI3</f>
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <f>'KLEMS VA'!BX33*'Approximate GST Rates'!AJ3</f>
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <f>'KLEMS VA'!BY33*'Approximate GST Rates'!AK3</f>
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <f>'KLEMS VA'!BZ33*'Approximate GST Rates'!AL3</f>
-        <v>38888.211748207104</v>
-      </c>
-      <c r="AM5">
-        <f>'KLEMS VA'!CA33*'Approximate GST Rates'!AM3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="30">
-        <f>SUM(B5:AM5)</f>
-        <v>1575274.7726440621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8">
-        <f>B1/B7</f>
-        <v>0.36917959336317324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B11" t="str">
-        <f>'KLEMS VA'!AP32</f>
-        <v>ISIC 01T03</v>
-      </c>
-      <c r="C11" t="str">
-        <f>'KLEMS VA'!AQ32</f>
-        <v>ISIC 05</v>
-      </c>
-      <c r="D11" t="str">
-        <f>'KLEMS VA'!AR32</f>
-        <v>ISIC 06</v>
-      </c>
-      <c r="E11" t="str">
-        <f>'KLEMS VA'!AS32</f>
-        <v>ISIC 07T08</v>
-      </c>
-      <c r="F11" t="str">
-        <f>'KLEMS VA'!AT32</f>
-        <v>ISIC 09</v>
-      </c>
-      <c r="G11" t="str">
-        <f>'KLEMS VA'!AU32</f>
-        <v>ISIC 10T12</v>
-      </c>
-      <c r="H11" t="str">
-        <f>'KLEMS VA'!AV32</f>
-        <v>ISIC 13T15</v>
-      </c>
-      <c r="I11" t="str">
-        <f>'KLEMS VA'!AW32</f>
-        <v>ISIC 16</v>
-      </c>
-      <c r="J11" t="str">
-        <f>'KLEMS VA'!AX32</f>
-        <v>ISIC 17T18</v>
-      </c>
-      <c r="K11" t="str">
-        <f>'KLEMS VA'!AY32</f>
-        <v>ISIC 19</v>
-      </c>
-      <c r="L11" t="str">
-        <f>'KLEMS VA'!AZ32</f>
-        <v>ISIC 20</v>
-      </c>
-      <c r="M11" t="str">
-        <f>'KLEMS VA'!BA32</f>
-        <v>ISIC 21</v>
-      </c>
-      <c r="N11" t="str">
-        <f>'KLEMS VA'!BB32</f>
-        <v>ISIC 22</v>
-      </c>
-      <c r="O11" t="str">
-        <f>'KLEMS VA'!BC32</f>
-        <v>ISIC 23</v>
-      </c>
-      <c r="P11" t="str">
-        <f>'KLEMS VA'!BD32</f>
-        <v>ISIC 24</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>'KLEMS VA'!BE32</f>
-        <v>ISIC 25</v>
-      </c>
-      <c r="R11" t="str">
-        <f>'KLEMS VA'!BF32</f>
-        <v>ISIC 26</v>
-      </c>
-      <c r="S11" t="str">
-        <f>'KLEMS VA'!BG32</f>
-        <v>ISIC 27</v>
-      </c>
-      <c r="T11" t="str">
-        <f>'KLEMS VA'!BH32</f>
-        <v>ISIC 28</v>
-      </c>
-      <c r="U11" t="str">
-        <f>'KLEMS VA'!BI32</f>
-        <v>ISIC 29</v>
-      </c>
-      <c r="V11" t="str">
-        <f>'KLEMS VA'!BJ32</f>
-        <v>ISIC 30</v>
-      </c>
-      <c r="W11" t="str">
-        <f>'KLEMS VA'!BK32</f>
-        <v>ISIC 31T33</v>
-      </c>
-      <c r="X11" t="str">
-        <f>'KLEMS VA'!BL32</f>
-        <v>ISIC 35T39</v>
-      </c>
-      <c r="Y11" t="str">
-        <f>'KLEMS VA'!BM32</f>
-        <v>ISIC 41T43</v>
-      </c>
-      <c r="Z11" t="str">
-        <f>'KLEMS VA'!BN32</f>
-        <v>ISIC 45T47</v>
-      </c>
-      <c r="AA11" t="str">
-        <f>'KLEMS VA'!BO32</f>
-        <v>ISIC 49T53</v>
-      </c>
-      <c r="AB11" t="str">
-        <f>'KLEMS VA'!BP32</f>
-        <v>ISIC 55T56</v>
-      </c>
-      <c r="AC11" t="str">
-        <f>'KLEMS VA'!BQ32</f>
-        <v>ISIC 58T60</v>
-      </c>
-      <c r="AD11" t="str">
-        <f>'KLEMS VA'!BR32</f>
-        <v>ISIC 61</v>
-      </c>
-      <c r="AE11" t="str">
-        <f>'KLEMS VA'!BS32</f>
-        <v>ISIC 62T63</v>
-      </c>
-      <c r="AF11" t="str">
-        <f>'KLEMS VA'!BT32</f>
-        <v>ISIC 64T66</v>
-      </c>
-      <c r="AG11" t="str">
-        <f>'KLEMS VA'!BU32</f>
-        <v>ISIC 68</v>
-      </c>
-      <c r="AH11" t="str">
-        <f>'KLEMS VA'!BV32</f>
-        <v>ISIC 69T82</v>
-      </c>
-      <c r="AI11" t="str">
-        <f>'KLEMS VA'!BW32</f>
-        <v>ISIC 84</v>
-      </c>
-      <c r="AJ11" t="str">
-        <f>'KLEMS VA'!BX32</f>
-        <v>ISIC 85</v>
-      </c>
-      <c r="AK11" t="str">
-        <f>'KLEMS VA'!BY32</f>
-        <v>ISIC 86T88</v>
-      </c>
-      <c r="AL11" t="str">
-        <f>'KLEMS VA'!BZ32</f>
-        <v>ISIC 90T96</v>
-      </c>
-      <c r="AM11" t="str">
-        <f>'KLEMS VA'!CA32</f>
-        <v>ISIC 97T98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12">
-        <f>B5*$B$8</f>
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:AM12" si="0">C5*$B$8</f>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>809.06663948648361</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>2717.6518404387966</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>10376.980446158565</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>15986.100816618698</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>2069.1719110315107</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>3222.2632868897022</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>17016.22398781835</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>2927.6650660439054</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>1907.7638366012293</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>7918.4494614717541</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>9616.7328277701145</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>9842.7089862732828</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>3445.8666940703656</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>4377.8462595858964</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="0"/>
-        <v>8712.7082522337969</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="0"/>
-        <v>15049.236086182249</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="0"/>
-        <v>7492.2074425811879</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="0"/>
-        <v>4053.4600451066767</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="0"/>
-        <v>59798.02715513447</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="0"/>
-        <v>86578.438587076875</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="0"/>
-        <v>35762.212828859716</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="0"/>
-        <v>8004.8262706878268</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="0"/>
-        <v>3865.0914976252993</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="0"/>
-        <v>13283.091185465284</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="0"/>
-        <v>20543.061725852112</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="0"/>
-        <v>63484.819175410121</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="0"/>
-        <v>55494.165596838357</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="0"/>
-        <v>92846.727890863258</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <f t="shared" si="0"/>
-        <v>14356.734199824075</v>
-      </c>
-      <c r="AM12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="27">
-        <f>B12/'KLEMS VA'!AP33</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="27">
-        <f>C12/'KLEMS VA'!AQ33</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="27">
-        <f>D12/'KLEMS VA'!AR33</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="27">
-        <f>E12/'KLEMS VA'!AS33</f>
-        <v>1.8458979668158664E-2</v>
-      </c>
-      <c r="F13" s="27">
-        <f>F12/'KLEMS VA'!AT33</f>
-        <v>4.4301551203580786E-2</v>
-      </c>
-      <c r="G13" s="27">
-        <f>G12/'KLEMS VA'!AU33</f>
-        <v>3.1380265435869727E-2</v>
-      </c>
-      <c r="H13" s="27">
-        <f>H12/'KLEMS VA'!AV33</f>
-        <v>4.4301551203580793E-2</v>
-      </c>
-      <c r="I13" s="27">
-        <f>I12/'KLEMS VA'!AW33</f>
-        <v>4.4301551203580793E-2</v>
-      </c>
-      <c r="J13" s="27">
-        <f>J12/'KLEMS VA'!AX33</f>
-        <v>4.4301551203580793E-2</v>
-      </c>
-      <c r="K13" s="27">
-        <f>K12/'KLEMS VA'!AY33</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="27">
-        <f>L12/'KLEMS VA'!AZ33</f>
-        <v>6.6452326805371192E-2</v>
-      </c>
-      <c r="M13" s="27">
-        <f>M12/'KLEMS VA'!BA33</f>
-        <v>1.8458979668158664E-2</v>
-      </c>
-      <c r="N13" s="27">
-        <f>N12/'KLEMS VA'!BB33</f>
-        <v>1.8458979668158661E-2</v>
-      </c>
-      <c r="O13" s="27">
-        <f>O12/'KLEMS VA'!BC33</f>
-        <v>4.4301551203580793E-2</v>
-      </c>
-      <c r="P13" s="27">
-        <f>P12/'KLEMS VA'!BD33</f>
-        <v>4.4301551203580786E-2</v>
-      </c>
-      <c r="Q13" s="27">
-        <f>Q12/'KLEMS VA'!BE33</f>
-        <v>6.6452326805371179E-2</v>
-      </c>
-      <c r="R13" s="27">
-        <f>R12/'KLEMS VA'!BF33</f>
-        <v>6.6452326805371179E-2</v>
-      </c>
-      <c r="S13" s="27">
-        <f>S12/'KLEMS VA'!BG33</f>
-        <v>4.4301551203580786E-2</v>
-      </c>
-      <c r="T13" s="27">
-        <f>T12/'KLEMS VA'!BH33</f>
-        <v>4.4301551203580786E-2</v>
-      </c>
-      <c r="U13" s="27">
-        <f>U12/'KLEMS VA'!BI33</f>
-        <v>6.6452326805371179E-2</v>
-      </c>
-      <c r="V13" s="27">
-        <f>V12/'KLEMS VA'!BJ33</f>
-        <v>6.6452326805371192E-2</v>
-      </c>
-      <c r="W13" s="27">
-        <f>W12/'KLEMS VA'!BK33</f>
-        <v>4.4301551203580786E-2</v>
-      </c>
-      <c r="X13" s="27">
-        <f>X12/'KLEMS VA'!BL33</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="27">
-        <f>Y12/'KLEMS VA'!BM33</f>
-        <v>4.4301551203580793E-2</v>
-      </c>
-      <c r="Z13" s="27">
-        <f>Z12/'KLEMS VA'!BN33</f>
-        <v>4.4301551203580786E-2</v>
-      </c>
-      <c r="AA13" s="27">
-        <f>AA12/'KLEMS VA'!BO33</f>
-        <v>4.4301551203580793E-2</v>
-      </c>
-      <c r="AB13" s="27">
-        <f>AB12/'KLEMS VA'!BP33</f>
-        <v>4.4301551203580793E-2</v>
-      </c>
-      <c r="AC13" s="27">
-        <f>AC12/'KLEMS VA'!BQ33</f>
-        <v>6.6452326805371179E-2</v>
-      </c>
-      <c r="AD13" s="27">
-        <f>AD12/'KLEMS VA'!BR33</f>
-        <v>6.6452326805371179E-2</v>
-      </c>
-      <c r="AE13" s="27">
-        <f>AE12/'KLEMS VA'!BS33</f>
-        <v>4.4301551203580793E-2</v>
-      </c>
-      <c r="AF13" s="27">
-        <f>AF12/'KLEMS VA'!BT33</f>
-        <v>6.6452326805371179E-2</v>
-      </c>
-      <c r="AG13" s="27">
-        <f>AG12/'KLEMS VA'!BU33</f>
-        <v>6.6452326805371179E-2</v>
-      </c>
-      <c r="AH13" s="27">
-        <f>AH12/'KLEMS VA'!BV33</f>
-        <v>6.6452326805371179E-2</v>
-      </c>
-      <c r="AI13" s="27">
-        <f>AI12/'KLEMS VA'!BW33</f>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="27">
-        <f>AJ12/'KLEMS VA'!BX33</f>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="27">
-        <f>AK12/'KLEMS VA'!BY33</f>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="27">
-        <f>AL12/'KLEMS VA'!BZ33</f>
-        <v>6.6452326805371192E-2</v>
-      </c>
-      <c r="AM13" s="27">
-        <f>AM12/'KLEMS VA'!CA33</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -9129,155 +7598,155 @@
         <v>40</v>
       </c>
       <c r="B2" s="9">
-        <f>'Corporate Taxes'!B4+GST!B13</f>
+        <f>'Corporate Taxes'!B4</f>
         <v>4.551107569199989E-4</v>
       </c>
       <c r="C2" s="9">
-        <f>'Corporate Taxes'!C4+GST!C13</f>
+        <f>'Corporate Taxes'!C4</f>
         <v>5.593526565219218E-2</v>
       </c>
       <c r="D2" s="9">
-        <f>'Corporate Taxes'!D4+GST!D13</f>
+        <f>'Corporate Taxes'!D4</f>
         <v>0.1262807486599779</v>
       </c>
       <c r="E2" s="9">
-        <f>'Corporate Taxes'!E4+GST!E13</f>
-        <v>0.17811623057471859</v>
+        <f>'Corporate Taxes'!E4</f>
+        <v>0.15965725090655994</v>
       </c>
       <c r="F2" s="9">
-        <f>'Corporate Taxes'!F4+GST!F13</f>
-        <v>4.4301551203580786E-2</v>
+        <f>'Corporate Taxes'!F4</f>
+        <v>0</v>
       </c>
       <c r="G2" s="9">
-        <f>'Corporate Taxes'!G4+GST!G13</f>
-        <v>6.0050578278672301E-2</v>
+        <f>'Corporate Taxes'!G4</f>
+        <v>2.8670312842802578E-2</v>
       </c>
       <c r="H2" s="9">
-        <f>'Corporate Taxes'!H4+GST!H13</f>
-        <v>5.6161466684957723E-2</v>
+        <f>'Corporate Taxes'!H4</f>
+        <v>1.1859915481376927E-2</v>
       </c>
       <c r="I2" s="9">
-        <f>'Corporate Taxes'!I4+GST!I13</f>
-        <v>0.16770563361314783</v>
+        <f>'Corporate Taxes'!I4</f>
+        <v>0.12340408240956703</v>
       </c>
       <c r="J2" s="9">
-        <f>'Corporate Taxes'!J4+GST!J13</f>
-        <v>6.7686514421438998E-2</v>
+        <f>'Corporate Taxes'!J4</f>
+        <v>2.3384963217858205E-2</v>
       </c>
       <c r="K2" s="9">
-        <f>'Corporate Taxes'!K4+GST!K13</f>
+        <f>'Corporate Taxes'!K4</f>
         <v>0.1397347927906448</v>
       </c>
       <c r="L2" s="9">
-        <f>'Corporate Taxes'!L4+GST!L13</f>
-        <v>0.11399046000801358</v>
+        <f>'Corporate Taxes'!L4</f>
+        <v>4.7538133202642378E-2</v>
       </c>
       <c r="M2" s="9">
-        <f>'Corporate Taxes'!M4+GST!M13</f>
-        <v>0.12091274090452887</v>
+        <f>'Corporate Taxes'!M4</f>
+        <v>0.10245376123637021</v>
       </c>
       <c r="N2" s="9">
-        <f>'Corporate Taxes'!N4+GST!N13</f>
-        <v>5.0951095843226497E-2</v>
+        <f>'Corporate Taxes'!N4</f>
+        <v>3.2492116175067837E-2</v>
       </c>
       <c r="O2" s="9">
-        <f>'Corporate Taxes'!O4+GST!O13</f>
-        <v>6.3921246517373437E-2</v>
+        <f>'Corporate Taxes'!O4</f>
+        <v>1.9619695313792637E-2</v>
       </c>
       <c r="P2" s="9">
-        <f>'Corporate Taxes'!P4+GST!P13</f>
-        <v>9.7379987826788972E-2</v>
+        <f>'Corporate Taxes'!P4</f>
+        <v>5.3078436623208186E-2</v>
       </c>
       <c r="Q2" s="9">
-        <f>'Corporate Taxes'!Q4+GST!Q13</f>
-        <v>0.18985640921493821</v>
+        <f>'Corporate Taxes'!Q4</f>
+        <v>0.12340408240956703</v>
       </c>
       <c r="R2" s="9">
-        <f>'Corporate Taxes'!R4+GST!R13</f>
-        <v>9.9354636419035178E-2</v>
+        <f>'Corporate Taxes'!R4</f>
+        <v>3.2902309613663999E-2</v>
       </c>
       <c r="S2" s="9">
-        <f>'Corporate Taxes'!S4+GST!S13</f>
-        <v>0.16770563361314783</v>
+        <f>'Corporate Taxes'!S4</f>
+        <v>0.12340408240956703</v>
       </c>
       <c r="T2" s="9">
-        <f>'Corporate Taxes'!T4+GST!T13</f>
-        <v>0.16770563361314783</v>
+        <f>'Corporate Taxes'!T4</f>
+        <v>0.12340408240956703</v>
       </c>
       <c r="U2" s="9">
-        <f>'Corporate Taxes'!U4+GST!U13</f>
-        <v>9.9622590799401223E-2</v>
+        <f>'Corporate Taxes'!U4</f>
+        <v>3.3170263994030037E-2</v>
       </c>
       <c r="V2" s="9">
-        <f>'Corporate Taxes'!V4+GST!V13</f>
-        <v>9.9622590799401223E-2</v>
+        <f>'Corporate Taxes'!V4</f>
+        <v>3.3170263994030037E-2</v>
       </c>
       <c r="W2" s="9">
-        <f>'Corporate Taxes'!W4+GST!W13</f>
-        <v>0.16770563361314783</v>
+        <f>'Corporate Taxes'!W4</f>
+        <v>0.12340408240956703</v>
       </c>
       <c r="X2" s="9">
-        <f>'Corporate Taxes'!X4+GST!X13</f>
+        <f>'Corporate Taxes'!X4</f>
         <v>3.8379514776179789E-4</v>
       </c>
       <c r="Y2" s="9">
-        <f>'Corporate Taxes'!Y4+GST!Y13</f>
-        <v>5.6802187085498772E-2</v>
+        <f>'Corporate Taxes'!Y4</f>
+        <v>1.2500635881917981E-2</v>
       </c>
       <c r="Z2" s="9">
-        <f>'Corporate Taxes'!Z4+GST!Z13</f>
-        <v>5.7260259824567249E-2</v>
+        <f>'Corporate Taxes'!Z4</f>
+        <v>1.2958708620986461E-2</v>
       </c>
       <c r="AA2" s="9">
-        <f>'Corporate Taxes'!AA4+GST!AA13</f>
-        <v>5.0943882752661901E-2</v>
+        <f>'Corporate Taxes'!AA4</f>
+        <v>6.6423315490811118E-3</v>
       </c>
       <c r="AB2" s="9">
-        <f>'Corporate Taxes'!AB4+GST!AB13</f>
-        <v>5.4955129453449936E-2</v>
+        <f>'Corporate Taxes'!AB4</f>
+        <v>1.0653578249869147E-2</v>
       </c>
       <c r="AC2" s="9">
-        <f>'Corporate Taxes'!AC4+GST!AC13</f>
-        <v>6.6452326805371179E-2</v>
+        <f>'Corporate Taxes'!AC4</f>
+        <v>0</v>
       </c>
       <c r="AD2" s="9">
-        <f>'Corporate Taxes'!AD4+GST!AD13</f>
-        <v>9.7507957930944675E-2</v>
+        <f>'Corporate Taxes'!AD4</f>
+        <v>3.1055631125573493E-2</v>
       </c>
       <c r="AE2" s="9">
-        <f>'Corporate Taxes'!AE4+GST!AE13</f>
-        <v>0.16172989661622766</v>
+        <f>'Corporate Taxes'!AE4</f>
+        <v>0.11742834541264688</v>
       </c>
       <c r="AF2" s="9">
-        <f>'Corporate Taxes'!AF4+GST!AF13</f>
-        <v>0.17697466308416615</v>
+        <f>'Corporate Taxes'!AF4</f>
+        <v>0.11052233627879497</v>
       </c>
       <c r="AG2" s="9">
-        <f>'Corporate Taxes'!AG4+GST!AG13</f>
-        <v>7.4453980228034358E-2</v>
+        <f>'Corporate Taxes'!AG4</f>
+        <v>8.0016534226631832E-3</v>
       </c>
       <c r="AH2" s="9">
-        <f>'Corporate Taxes'!AH4+GST!AH13</f>
-        <v>9.2265918203077807E-2</v>
+        <f>'Corporate Taxes'!AH4</f>
+        <v>2.5813591397706628E-2</v>
       </c>
       <c r="AI2" s="9">
-        <f>'Corporate Taxes'!AI4+GST!AI13</f>
+        <f>'Corporate Taxes'!AI4</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="9">
-        <f>'Corporate Taxes'!AJ4+GST!AJ13</f>
+        <f>'Corporate Taxes'!AJ4</f>
         <v>1.0408780643824105E-3</v>
       </c>
       <c r="AK2" s="9">
-        <f>'Corporate Taxes'!AK4+GST!AK13</f>
+        <f>'Corporate Taxes'!AK4</f>
         <v>8.1104834345487389E-3</v>
       </c>
       <c r="AL2" s="9">
-        <f>'Corporate Taxes'!AL4+GST!AL13</f>
-        <v>8.3309183177282475E-2</v>
+        <f>'Corporate Taxes'!AL4</f>
+        <v>1.6856856371911283E-2</v>
       </c>
       <c r="AM2" s="9">
-        <f>'Corporate Taxes'!AM4+GST!AM13</f>
+        <f>'Corporate Taxes'!AM4</f>
         <v>0</v>
       </c>
     </row>
